--- a/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
+++ b/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/rtRBA-main/parameterization/kapp/datasets/raw_data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/parameterization/kapp/datasets/raw_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8DC84-DC7C-1C40-AD63-A745B7E102D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D340FD77-4BC7-1847-8ECA-A61C23AFDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rxns" sheetId="1" r:id="rId1"/>
@@ -4457,6 +4457,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4485,20 +4499,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4513,7 +4513,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}" name="Table1" displayName="Table1" ref="A1:N385" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}" name="Table1" displayName="Table1" ref="A1:N385" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:N385" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{8826D10A-F6F0-C047-ADEC-949BD09E1179}" name="id"/>
@@ -4822,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9402,28 +9402,28 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>5.0278475891423033E-4</v>
+        <v>-5.0278475891423033E-4</v>
       </c>
       <c r="H105">
-        <v>5.0263767430764955E-4</v>
+        <v>-5.0263767430764955E-4</v>
       </c>
       <c r="I105">
-        <v>5.0289487430764954E-4</v>
+        <v>-5.0289487430764954E-4</v>
       </c>
       <c r="J105">
-        <v>1.815565358385475E-3</v>
+        <v>-1.815565358385475E-3</v>
       </c>
       <c r="K105">
-        <v>1.815034233064499E-3</v>
+        <v>-1.815034233064499E-3</v>
       </c>
       <c r="L105">
-        <v>1.8159629871722909E-3</v>
+        <v>-1.8159629871722909E-3</v>
       </c>
       <c r="M105">
-        <v>5.0284937531644913E-4</v>
+        <v>-5.0284937531644913E-4</v>
       </c>
       <c r="N105">
-        <v>1.815805243158865E-3</v>
+        <v>-1.815805243158865E-3</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -9484,28 +9484,28 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>4.4570596846566949E-5</v>
+        <v>-4.4570596846566949E-5</v>
       </c>
       <c r="H107">
-        <v>4.4557305498500819E-5</v>
+        <v>-4.4557305498500819E-5</v>
       </c>
       <c r="I107">
-        <v>4.4580105498500808E-5</v>
+        <v>-4.4580105498500808E-5</v>
       </c>
       <c r="J107">
-        <v>1.6094527569201049E-4</v>
+        <v>-1.6094527569201049E-4</v>
       </c>
       <c r="K107">
-        <v>1.6089728038052331E-4</v>
+        <v>-1.6089728038052331E-4</v>
       </c>
       <c r="L107">
-        <v>1.6097961161558411E-4</v>
+        <v>-1.6097961161558411E-4</v>
       </c>
       <c r="M107">
-        <v>4.46E-5</v>
+        <v>-4.46E-5</v>
       </c>
       <c r="N107">
-        <v>1.610520323186652E-4</v>
+        <v>-1.610520323186652E-4</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -9566,28 +9566,28 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>2.5958981831323289E-4</v>
+        <v>-2.5958981831323289E-4</v>
       </c>
       <c r="H109">
-        <v>2.5952676185091698E-4</v>
+        <v>-2.5952676185091698E-4</v>
       </c>
       <c r="I109">
-        <v>2.59659561850917E-4</v>
+        <v>-2.59659561850917E-4</v>
       </c>
       <c r="J109">
-        <v>9.3738378732256703E-4</v>
+        <v>-9.3738378732256703E-4</v>
       </c>
       <c r="K109">
-        <v>9.3715608923392502E-4</v>
+        <v>-9.3715608923392502E-4</v>
       </c>
       <c r="L109">
-        <v>9.3763563256796364E-4</v>
+        <v>-9.3763563256796364E-4</v>
       </c>
       <c r="M109">
-        <v>2.5963606937023503E-4</v>
+        <v>-2.5963606937023503E-4</v>
       </c>
       <c r="N109">
-        <v>9.3755418464812302E-4</v>
+        <v>-9.3755418464812302E-4</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -9607,28 +9607,28 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>27.693013451266829</v>
+        <v>-27.693013451266829</v>
       </c>
       <c r="H110">
-        <v>27.692913451266829</v>
+        <v>-27.692913451266829</v>
       </c>
       <c r="I110">
-        <v>27.693113451266829</v>
+        <v>-27.693113451266829</v>
       </c>
       <c r="J110">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K110">
-        <v>99.999638898091831</v>
+        <v>-99.999638898091831</v>
       </c>
       <c r="L110">
-        <v>100.0003611019082</v>
+        <v>-100.0003611019082</v>
       </c>
       <c r="M110">
-        <v>27.6929135</v>
+        <v>-27.6929135</v>
       </c>
       <c r="N110">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -9730,28 +9730,28 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.23599910635110469</v>
+        <v>-0.23599910635110469</v>
       </c>
       <c r="H113">
-        <v>0.23593874968570189</v>
+        <v>-0.23593874968570189</v>
       </c>
       <c r="I113">
-        <v>0.2360594796857019</v>
+        <v>-0.2360594796857019</v>
       </c>
       <c r="J113">
-        <v>0.85219727627839226</v>
+        <v>-0.85219727627839226</v>
       </c>
       <c r="K113">
-        <v>0.85197932720792002</v>
+        <v>-0.85197932720792002</v>
       </c>
       <c r="L113">
-        <v>0.85241528554164359</v>
+        <v>-0.85241528554164359</v>
       </c>
       <c r="M113">
-        <v>0.23603812240262401</v>
+        <v>-0.23603812240262401</v>
       </c>
       <c r="N113">
-        <v>0.8523412403054812</v>
+        <v>-0.8523412403054812</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -9771,28 +9771,28 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>2.486738260970427E-2</v>
+        <v>-2.486738260970427E-2</v>
       </c>
       <c r="H114">
-        <v>2.4861022200378429E-2</v>
+        <v>-2.4861022200378429E-2</v>
       </c>
       <c r="I114">
-        <v>2.4873743600378431E-2</v>
+        <v>-2.4873743600378431E-2</v>
       </c>
       <c r="J114">
-        <v>8.979659311351218E-2</v>
+        <v>-8.979659311351218E-2</v>
       </c>
       <c r="K114">
-        <v>8.9773625554069675E-2</v>
+        <v>-8.9773625554069675E-2</v>
       </c>
       <c r="L114">
-        <v>8.9819562772214562E-2</v>
+        <v>-8.9819562772214562E-2</v>
       </c>
       <c r="M114">
-        <v>2.487149316932611E-2</v>
+        <v>-2.487149316932611E-2</v>
       </c>
       <c r="N114">
-        <v>8.9811760576676433E-2</v>
+        <v>-8.9811760576676433E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -9812,28 +9812,28 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>3.6748470144450228E-5</v>
+        <v>-3.6748470144450228E-5</v>
       </c>
       <c r="H115">
-        <v>3.6740234358412949E-5</v>
+        <v>-3.6740234358412949E-5</v>
       </c>
       <c r="I115">
-        <v>3.675903435841295E-5</v>
+        <v>-3.675903435841295E-5</v>
       </c>
       <c r="J115">
-        <v>1.3269942691184139E-4</v>
+        <v>-1.3269942691184139E-4</v>
       </c>
       <c r="K115">
-        <v>1.3266968733130859E-4</v>
+        <v>-1.3266968733130859E-4</v>
       </c>
       <c r="L115">
-        <v>1.3273757449004309E-4</v>
+        <v>-1.3273757449004309E-4</v>
       </c>
       <c r="M115">
-        <v>3.6755708615665803E-5</v>
+        <v>-3.6755708615665803E-5</v>
       </c>
       <c r="N115">
-        <v>1.327260442122343E-4</v>
+        <v>-1.327260442122343E-4</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -9853,28 +9853,28 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>3.1109889598980391</v>
+        <v>-3.1109889598980391</v>
       </c>
       <c r="H116">
-        <v>3.1101933705520501</v>
+        <v>-3.1101933705520501</v>
       </c>
       <c r="I116">
-        <v>3.1117848531436469</v>
+        <v>-3.1117848531436469</v>
       </c>
       <c r="J116">
-        <v>11.23384049689156</v>
+        <v>-11.23384049689156</v>
       </c>
       <c r="K116">
-        <v>11.230967608582059</v>
+        <v>-11.230967608582059</v>
       </c>
       <c r="L116">
-        <v>11.23671448258837</v>
+        <v>-11.23671448258837</v>
       </c>
       <c r="M116">
-        <v>3.111503289477823</v>
+        <v>-3.111503289477823</v>
       </c>
       <c r="N116">
-        <v>11.23573830351156</v>
+        <v>-11.23573830351156</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -9894,28 +9894,28 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>5.6069593885133298</v>
+        <v>-5.6069593885133298</v>
       </c>
       <c r="H117">
-        <v>5.60685938851333</v>
+        <v>-5.60685938851333</v>
       </c>
       <c r="I117">
-        <v>5.6070593885133304</v>
+        <v>-5.6070593885133304</v>
       </c>
       <c r="J117">
-        <v>20.246837341773059</v>
+        <v>-20.246837341773059</v>
       </c>
       <c r="K117">
-        <v>20.246476239864901</v>
+        <v>-20.246476239864901</v>
       </c>
       <c r="L117">
-        <v>20.247198443681221</v>
+        <v>-20.247198443681221</v>
       </c>
       <c r="M117">
-        <v>5.6068594000000003</v>
+        <v>-5.6068594000000003</v>
       </c>
       <c r="N117">
-        <v>20.2465493563904</v>
+        <v>-20.2465493563904</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -9935,28 +9935,28 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0.2269148953559742</v>
+        <v>-0.2269148953559742</v>
       </c>
       <c r="H118">
-        <v>0.22685682214492919</v>
+        <v>-0.22685682214492919</v>
       </c>
       <c r="I118">
-        <v>0.22697286015901369</v>
+        <v>-0.22697286015901369</v>
       </c>
       <c r="J118">
-        <v>0.81939401703354142</v>
+        <v>-0.81939401703354142</v>
       </c>
       <c r="K118">
-        <v>0.81918431356032695</v>
+        <v>-0.81918431356032695</v>
       </c>
       <c r="L118">
-        <v>0.81960332904337929</v>
+        <v>-0.81960332904337929</v>
       </c>
       <c r="M118">
-        <v>0.22695242404720689</v>
+        <v>-0.22695242404720689</v>
       </c>
       <c r="N118">
-        <v>0.81953249175897269</v>
+        <v>-0.81953249175897269</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -9976,28 +9976,28 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>3.5794517105617207E-2</v>
+        <v>-3.5794517105617207E-2</v>
       </c>
       <c r="H119">
-        <v>3.578537911865122E-2</v>
+        <v>-3.578537911865122E-2</v>
       </c>
       <c r="I119">
-        <v>3.5803690518651218E-2</v>
+        <v>-3.5803690518651218E-2</v>
       </c>
       <c r="J119">
-        <v>0.12925468428564879</v>
+        <v>-0.12925468428564879</v>
       </c>
       <c r="K119">
-        <v>0.1292216868403471</v>
+        <v>-0.1292216868403471</v>
       </c>
       <c r="L119">
-        <v>0.12928780965515821</v>
+        <v>-0.12928780965515821</v>
       </c>
       <c r="M119">
-        <v>3.5800451209835243E-2</v>
+        <v>-3.5800451209835243E-2</v>
       </c>
       <c r="N119">
-        <v>0.12927657904190989</v>
+        <v>-0.12927657904190989</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -10017,28 +10017,28 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>6.161713331952934E-4</v>
+        <v>-6.161713331952934E-4</v>
       </c>
       <c r="H120">
-        <v>6.1598520583892348E-4</v>
+        <v>-6.1598520583892348E-4</v>
       </c>
       <c r="I120">
-        <v>6.1630040583892352E-4</v>
+        <v>-6.1630040583892352E-4</v>
       </c>
       <c r="J120">
-        <v>2.225006441713574E-3</v>
+        <v>-2.225006441713574E-3</v>
       </c>
       <c r="K120">
-        <v>2.224334332278111E-3</v>
+        <v>-2.224334332278111E-3</v>
       </c>
       <c r="L120">
-        <v>2.2254725254926369E-3</v>
+        <v>-2.2254725254926369E-3</v>
       </c>
       <c r="M120">
-        <v>6.1624464657754569E-4</v>
+        <v>-6.1624464657754569E-4</v>
       </c>
       <c r="N120">
-        <v>2.225279209345545E-3</v>
+        <v>-2.225279209345545E-3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">

--- a/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
+++ b/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/parameterization/kapp/datasets/raw_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4678B-98E9-FD4A-9A49-0E26BEF6034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEA105-F377-ED48-886D-20CFCAB3DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="760" windowWidth="14200" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rxns" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1482">
   <si>
     <t>id</t>
   </si>
@@ -4440,6 +4462,48 @@
   </si>
   <si>
     <t>G3PD1r_c</t>
+  </si>
+  <si>
+    <t>reaction (as written in original data)</t>
+  </si>
+  <si>
+    <t>ca2_e --&gt; ca2_out</t>
+  </si>
+  <si>
+    <t>cu2_e --&gt; cu2_out</t>
+  </si>
+  <si>
+    <t>fe2_e --&gt; fe2_out</t>
+  </si>
+  <si>
+    <t>glc__D_e --&gt; glc__D_out</t>
+  </si>
+  <si>
+    <t>k_e --&gt; k_out</t>
+  </si>
+  <si>
+    <t>mg2_e --&gt; mg2_out</t>
+  </si>
+  <si>
+    <t>mn2_e --&gt; mn2_out</t>
+  </si>
+  <si>
+    <t>nh4_e --&gt; nh4_out</t>
+  </si>
+  <si>
+    <t>o2_e --&gt; o2_out</t>
+  </si>
+  <si>
+    <t>pi_e --&gt; pi_out</t>
+  </si>
+  <si>
+    <t>so4_e --&gt; so4_out</t>
+  </si>
+  <si>
+    <t>zn2_e --&gt; zn2_out</t>
+  </si>
+  <si>
+    <t>h2o_e --&gt; h2o_c</t>
   </si>
 </sst>
 </file>
@@ -4506,16 +4570,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -4561,9 +4625,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}" name="Table1" displayName="Table1" ref="A1:O385" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:O385" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}" name="Table1" displayName="Table1" ref="A1:P385" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:P385" xr:uid="{28CCC142-63E5-0C43-8DA2-635A3F61D751}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{8826D10A-F6F0-C047-ADEC-949BD09E1179}" name="id"/>
     <tableColumn id="15" xr3:uid="{34A40186-3E97-8F4F-B2A3-1CC4F7B89A50}" name="AMM_id"/>
     <tableColumn id="2" xr3:uid="{97E6A1E8-9B6E-A944-B32D-618458C5101D}" name="name"/>
@@ -4579,6 +4643,7 @@
     <tableColumn id="12" xr3:uid="{64F5078E-7439-C140-B61A-1C4FA4EDF77E}" name="mfaUB_100"/>
     <tableColumn id="13" xr3:uid="{173AF6E5-5193-5C43-BFEB-19CFB2848662}" name="pfba"/>
     <tableColumn id="14" xr3:uid="{84769A35-ACF9-6141-BB1C-89AA7BEFBD93}" name="pfba_100"/>
+    <tableColumn id="16" xr3:uid="{7CDD8469-4A6E-5B4F-A4BC-36D1BAA2A115}" name="reaction (as written in original data)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4869,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O385"/>
+  <dimension ref="A1:Y385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A352" sqref="A352"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4883,9 +4948,10 @@
     <col min="11" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4931,8 +4997,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4978,8 +5047,11 @@
       <c r="O2">
         <v>0.84188129843820214</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5025,8 +5097,11 @@
       <c r="O3">
         <v>0.22154800737409391</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5072,8 +5147,11 @@
       <c r="O4">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5119,8 +5197,11 @@
       <c r="O5">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5166,8 +5247,11 @@
       <c r="O6">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5213,8 +5297,11 @@
       <c r="O7">
         <v>0.3963520963999852</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5260,8 +5347,11 @@
       <c r="O8">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5307,8 +5397,11 @@
       <c r="O9">
         <v>1.99046706942539E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5354,8 +5447,11 @@
       <c r="O10">
         <v>1.99046706942539E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5401,8 +5497,11 @@
       <c r="O11">
         <v>0.35958059827813749</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -5448,8 +5547,11 @@
       <c r="O12">
         <v>0.39200637158083401</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5495,8 +5597,11 @@
       <c r="O13">
         <v>1.0209484997892191</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1452</v>
       </c>
@@ -5542,8 +5647,11 @@
       <c r="O14">
         <v>9.3587881189041794E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1454</v>
       </c>
@@ -5589,8 +5697,11 @@
       <c r="O15">
         <v>3.4337629288270957E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -5636,8 +5747,11 @@
       <c r="O16">
         <v>2.478761239746567</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -5683,8 +5797,11 @@
       <c r="O17">
         <v>2.478761239746567</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5730,8 +5847,11 @@
       <c r="O18">
         <v>0.35958059827813749</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -5777,8 +5897,11 @@
       <c r="O19">
         <v>2.9875028771776342</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -5824,8 +5947,11 @@
       <c r="O20">
         <v>-3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -5871,8 +5997,11 @@
       <c r="O21">
         <v>12.627837590822461</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -5918,8 +6047,11 @@
       <c r="O22">
         <v>0.155723310444006</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -5965,8 +6097,11 @@
       <c r="O23">
         <v>71.087634451851272</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6012,8 +6147,11 @@
       <c r="O24">
         <v>8.5190352675541939E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -6059,8 +6197,11 @@
       <c r="O25">
         <v>0.2702443458078958</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6106,8 +6247,11 @@
       <c r="O26">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6153,8 +6297,11 @@
       <c r="O27">
         <v>0.2702443458078958</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -6200,8 +6347,11 @@
       <c r="O28">
         <v>7.3729317559896146E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -6247,8 +6397,11 @@
       <c r="O29">
         <v>0.35958059827813749</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -6294,8 +6447,11 @@
       <c r="O30">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -6341,8 +6497,11 @@
       <c r="O31">
         <v>0.155723310444006</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -6388,8 +6547,11 @@
       <c r="O32">
         <v>8.5189991572330467E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -6435,8 +6597,11 @@
       <c r="O33">
         <v>0.41022372713840932</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -6482,8 +6647,11 @@
       <c r="O34">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -6529,8 +6697,11 @@
       <c r="O35">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -6576,8 +6747,11 @@
       <c r="O36">
         <v>7.7116982159616987E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -6623,8 +6797,11 @@
       <c r="O37">
         <v>1.7725174232490191</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -6670,8 +6847,11 @@
       <c r="O38">
         <v>7.709749134759987E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -6714,8 +6894,11 @@
       <c r="O39">
         <v>7.709749134759987E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -6761,8 +6944,11 @@
       <c r="O40">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -6808,8 +6994,11 @@
       <c r="O41">
         <v>-3.123542779274561E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -6855,8 +7044,11 @@
       <c r="O42">
         <v>0.61640209868131068</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -6902,8 +7094,11 @@
       <c r="O43">
         <v>4.3260218538025912E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -6949,8 +7144,11 @@
       <c r="O44">
         <v>-3.123542779274561E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -6996,8 +7194,11 @@
       <c r="O45">
         <v>0.25658878814920821</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -7043,8 +7244,11 @@
       <c r="O46">
         <v>0.25658878814920821</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -7090,8 +7294,11 @@
       <c r="O47">
         <v>0.83858892406159524</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -7137,8 +7344,11 @@
       <c r="O48">
         <v>0.30881433056765573</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -7184,8 +7394,11 @@
       <c r="O49">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -7231,8 +7444,11 @@
       <c r="O50">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -7278,8 +7494,11 @@
       <c r="O51">
         <v>0.83858892406159524</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -7325,8 +7544,11 @@
       <c r="O52">
         <v>-2.5839046739305909</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>230</v>
       </c>
@@ -7372,8 +7594,11 @@
       <c r="O53">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>233</v>
       </c>
@@ -7416,8 +7641,11 @@
       <c r="O54">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>237</v>
       </c>
@@ -7463,8 +7691,11 @@
       <c r="O55">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -7510,8 +7741,11 @@
       <c r="O56">
         <v>23.199187893877081</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>246</v>
       </c>
@@ -7557,8 +7791,11 @@
       <c r="O57">
         <v>8.5190352675541939E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -7601,8 +7838,11 @@
       <c r="O58">
         <v>1.4119791937471731</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -7648,8 +7888,11 @@
       <c r="O59">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -7695,8 +7938,11 @@
       <c r="O60">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1455</v>
       </c>
@@ -7742,8 +7988,11 @@
       <c r="O61">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -7789,8 +8038,11 @@
       <c r="O62">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -7836,8 +8088,11 @@
       <c r="O63">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -7883,8 +8138,11 @@
       <c r="O64">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -7930,8 +8188,11 @@
       <c r="O65">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -7977,8 +8238,11 @@
       <c r="O66">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>286</v>
       </c>
@@ -8024,8 +8288,11 @@
       <c r="O67">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -8071,8 +8338,11 @@
       <c r="O68">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>290</v>
       </c>
@@ -8118,8 +8388,11 @@
       <c r="O69">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -8165,8 +8438,11 @@
       <c r="O70">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -8212,8 +8488,11 @@
       <c r="O71">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -8256,8 +8535,11 @@
       <c r="O72">
         <v>1.815805243158865E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -8303,8 +8585,11 @@
       <c r="O73">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>308</v>
       </c>
@@ -8350,8 +8635,11 @@
       <c r="O74">
         <v>0.57567067031058183</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1456</v>
       </c>
@@ -8397,8 +8685,11 @@
       <c r="O75">
         <v>6.949479195784837E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -8444,8 +8735,11 @@
       <c r="O76">
         <v>0.38069218230133778</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -8491,8 +8785,11 @@
       <c r="O77">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -8538,8 +8835,11 @@
       <c r="O78">
         <v>1.99046706942539E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1457</v>
       </c>
@@ -8585,8 +8885,11 @@
       <c r="O79">
         <v>2.4787605175401439</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -8632,8 +8935,11 @@
       <c r="O80">
         <v>2.478760156436933</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>334</v>
       </c>
@@ -8676,8 +8982,11 @@
       <c r="O81">
         <v>191.42318646306131</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -8720,8 +9029,11 @@
       <c r="O82">
         <v>-13.63079727960007</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -8767,8 +9079,11 @@
       <c r="O83">
         <v>2.478761239746567</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -8814,8 +9129,11 @@
       <c r="O84">
         <v>0.136128914069165</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>347</v>
       </c>
@@ -8858,8 +9176,11 @@
       <c r="O85">
         <v>1.610520323186652E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -8905,8 +9226,11 @@
       <c r="O86">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>353</v>
       </c>
@@ -8949,8 +9273,11 @@
       <c r="O87">
         <v>6.949479195784837E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>356</v>
       </c>
@@ -8996,8 +9323,11 @@
       <c r="O88">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>360</v>
       </c>
@@ -9043,8 +9373,11 @@
       <c r="O89">
         <v>9.6424059140994452E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>364</v>
       </c>
@@ -9090,8 +9423,11 @@
       <c r="O90">
         <v>1.0209484997892191</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>368</v>
       </c>
@@ -9137,8 +9473,11 @@
       <c r="O91">
         <v>0.39200637158083401</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>371</v>
       </c>
@@ -9184,8 +9523,11 @@
       <c r="O92">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -9231,8 +9573,11 @@
       <c r="O93">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>380</v>
       </c>
@@ -9278,8 +9623,11 @@
       <c r="O94">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>384</v>
       </c>
@@ -9325,8 +9673,11 @@
       <c r="O95">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>388</v>
       </c>
@@ -9372,8 +9723,11 @@
       <c r="O96">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -9419,8 +9773,11 @@
       <c r="O97">
         <v>9.3905088259349498E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1458</v>
       </c>
@@ -9466,8 +9823,11 @@
       <c r="O98">
         <v>0.5425247656134764</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -9513,8 +9873,11 @@
       <c r="O99">
         <v>0.5425247656134764</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>403</v>
       </c>
@@ -9560,8 +9923,11 @@
       <c r="O100">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>407</v>
       </c>
@@ -9607,8 +9973,11 @@
       <c r="O101">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -9654,8 +10023,11 @@
       <c r="O102">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>415</v>
       </c>
@@ -9701,8 +10073,11 @@
       <c r="O103">
         <v>178.6442538400008</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>420</v>
       </c>
@@ -9745,8 +10120,11 @@
       <c r="O104">
         <v>165.72966618337219</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -9757,7 +10135,7 @@
         <v>424</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>1469</v>
       </c>
       <c r="E105" t="s">
         <v>426</v>
@@ -9769,19 +10147,19 @@
         <v>-5.0278475891423033E-4</v>
       </c>
       <c r="I105">
+        <v>-5.0289487430764954E-4</v>
+      </c>
+      <c r="J105">
         <v>-5.0263767430764955E-4</v>
-      </c>
-      <c r="J105">
-        <v>-5.0289487430764954E-4</v>
       </c>
       <c r="K105">
         <v>-1.815565358385475E-3</v>
       </c>
       <c r="L105">
+        <v>-1.8159629871722909E-3</v>
+      </c>
+      <c r="M105">
         <v>-1.815034233064499E-3</v>
-      </c>
-      <c r="M105">
-        <v>-1.8159629871722909E-3</v>
       </c>
       <c r="N105">
         <v>-5.0284937531644913E-4</v>
@@ -9789,8 +10167,11 @@
       <c r="O105">
         <v>-1.815805243158865E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>427</v>
       </c>
@@ -9833,8 +10214,11 @@
       <c r="O106">
         <v>191.42318646306131</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>430</v>
       </c>
@@ -9845,7 +10229,7 @@
         <v>431</v>
       </c>
       <c r="D107" t="s">
-        <v>432</v>
+        <v>1470</v>
       </c>
       <c r="E107" t="s">
         <v>426</v>
@@ -9857,19 +10241,19 @@
         <v>-4.4570596846566949E-5</v>
       </c>
       <c r="I107">
+        <v>-4.4580105498500808E-5</v>
+      </c>
+      <c r="J107">
         <v>-4.4557305498500819E-5</v>
-      </c>
-      <c r="J107">
-        <v>-4.4580105498500808E-5</v>
       </c>
       <c r="K107">
         <v>-1.6094527569201049E-4</v>
       </c>
       <c r="L107">
+        <v>-1.6097961161558411E-4</v>
+      </c>
+      <c r="M107">
         <v>-1.6089728038052331E-4</v>
-      </c>
-      <c r="M107">
-        <v>-1.6097961161558411E-4</v>
       </c>
       <c r="N107">
         <v>-4.46E-5</v>
@@ -9877,8 +10261,11 @@
       <c r="O107">
         <v>-1.610520323186652E-4</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>433</v>
       </c>
@@ -9921,8 +10308,11 @@
       <c r="O108">
         <v>165.72966618337219</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>436</v>
       </c>
@@ -9933,7 +10323,7 @@
         <v>437</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>1471</v>
       </c>
       <c r="E109" t="s">
         <v>426</v>
@@ -9945,19 +10335,19 @@
         <v>-2.5958981831323289E-4</v>
       </c>
       <c r="I109">
+        <v>-2.59659561850917E-4</v>
+      </c>
+      <c r="J109">
         <v>-2.5952676185091698E-4</v>
-      </c>
-      <c r="J109">
-        <v>-2.59659561850917E-4</v>
       </c>
       <c r="K109">
         <v>-9.3738378732256703E-4</v>
       </c>
       <c r="L109">
+        <v>-9.3763563256796364E-4</v>
+      </c>
+      <c r="M109">
         <v>-9.3715608923392502E-4</v>
-      </c>
-      <c r="M109">
-        <v>-9.3763563256796364E-4</v>
       </c>
       <c r="N109">
         <v>-2.5963606937023503E-4</v>
@@ -9965,8 +10355,11 @@
       <c r="O109">
         <v>-9.3755418464812302E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>439</v>
       </c>
@@ -9977,7 +10370,7 @@
         <v>440</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>1472</v>
       </c>
       <c r="E110" t="s">
         <v>426</v>
@@ -9989,19 +10382,19 @@
         <v>-27.693013451266829</v>
       </c>
       <c r="I110">
+        <v>-27.693113451266829</v>
+      </c>
+      <c r="J110">
         <v>-27.692913451266829</v>
-      </c>
-      <c r="J110">
-        <v>-27.693113451266829</v>
       </c>
       <c r="K110">
         <v>-100</v>
       </c>
       <c r="L110">
+        <v>-100.0003611019082</v>
+      </c>
+      <c r="M110">
         <v>-99.999638898091831</v>
-      </c>
-      <c r="M110">
-        <v>-100.0003611019082</v>
       </c>
       <c r="N110">
         <v>-27.6929135</v>
@@ -10009,8 +10402,11 @@
       <c r="O110">
         <v>-100</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>442</v>
       </c>
@@ -10053,8 +10449,11 @@
       <c r="O111">
         <v>54.107611871392891</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>445</v>
       </c>
@@ -10097,8 +10496,11 @@
       <c r="O112">
         <v>3.7046893553475968</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>448</v>
       </c>
@@ -10109,7 +10511,7 @@
         <v>449</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>1473</v>
       </c>
       <c r="E113" t="s">
         <v>426</v>
@@ -10121,19 +10523,19 @@
         <v>-0.23599910635110469</v>
       </c>
       <c r="I113">
+        <v>-0.2360594796857019</v>
+      </c>
+      <c r="J113">
         <v>-0.23593874968570189</v>
-      </c>
-      <c r="J113">
-        <v>-0.2360594796857019</v>
       </c>
       <c r="K113">
         <v>-0.85219727627839226</v>
       </c>
       <c r="L113">
+        <v>-0.85241528554164359</v>
+      </c>
+      <c r="M113">
         <v>-0.85197932720792002</v>
-      </c>
-      <c r="M113">
-        <v>-0.85241528554164359</v>
       </c>
       <c r="N113">
         <v>-0.23603812240262401</v>
@@ -10141,8 +10543,11 @@
       <c r="O113">
         <v>-0.8523412403054812</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>451</v>
       </c>
@@ -10153,7 +10558,7 @@
         <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
+        <v>1474</v>
       </c>
       <c r="E114" t="s">
         <v>426</v>
@@ -10165,19 +10570,19 @@
         <v>-2.486738260970427E-2</v>
       </c>
       <c r="I114">
+        <v>-2.4873743600378431E-2</v>
+      </c>
+      <c r="J114">
         <v>-2.4861022200378429E-2</v>
-      </c>
-      <c r="J114">
-        <v>-2.4873743600378431E-2</v>
       </c>
       <c r="K114">
         <v>-8.979659311351218E-2</v>
       </c>
       <c r="L114">
+        <v>-8.9819562772214562E-2</v>
+      </c>
+      <c r="M114">
         <v>-8.9773625554069675E-2</v>
-      </c>
-      <c r="M114">
-        <v>-8.9819562772214562E-2</v>
       </c>
       <c r="N114">
         <v>-2.487149316932611E-2</v>
@@ -10185,8 +10590,11 @@
       <c r="O114">
         <v>-8.9811760576676433E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>454</v>
       </c>
@@ -10197,7 +10605,7 @@
         <v>455</v>
       </c>
       <c r="D115" t="s">
-        <v>456</v>
+        <v>1475</v>
       </c>
       <c r="E115" t="s">
         <v>426</v>
@@ -10209,19 +10617,19 @@
         <v>-3.6748470144450228E-5</v>
       </c>
       <c r="I115">
+        <v>-3.675903435841295E-5</v>
+      </c>
+      <c r="J115">
         <v>-3.6740234358412949E-5</v>
-      </c>
-      <c r="J115">
-        <v>-3.675903435841295E-5</v>
       </c>
       <c r="K115">
         <v>-1.3269942691184139E-4</v>
       </c>
       <c r="L115">
+        <v>-1.3273757449004309E-4</v>
+      </c>
+      <c r="M115">
         <v>-1.3266968733130859E-4</v>
-      </c>
-      <c r="M115">
-        <v>-1.3273757449004309E-4</v>
       </c>
       <c r="N115">
         <v>-3.6755708615665803E-5</v>
@@ -10229,8 +10637,11 @@
       <c r="O115">
         <v>-1.327260442122343E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>457</v>
       </c>
@@ -10241,7 +10652,7 @@
         <v>458</v>
       </c>
       <c r="D116" t="s">
-        <v>459</v>
+        <v>1476</v>
       </c>
       <c r="E116" t="s">
         <v>426</v>
@@ -10253,19 +10664,19 @@
         <v>-3.1109889598980391</v>
       </c>
       <c r="I116">
+        <v>-3.1117848531436469</v>
+      </c>
+      <c r="J116">
         <v>-3.1101933705520501</v>
-      </c>
-      <c r="J116">
-        <v>-3.1117848531436469</v>
       </c>
       <c r="K116">
         <v>-11.23384049689156</v>
       </c>
       <c r="L116">
+        <v>-11.23671448258837</v>
+      </c>
+      <c r="M116">
         <v>-11.230967608582059</v>
-      </c>
-      <c r="M116">
-        <v>-11.23671448258837</v>
       </c>
       <c r="N116">
         <v>-3.111503289477823</v>
@@ -10273,8 +10684,11 @@
       <c r="O116">
         <v>-11.23573830351156</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>460</v>
       </c>
@@ -10285,7 +10699,7 @@
         <v>461</v>
       </c>
       <c r="D117" t="s">
-        <v>462</v>
+        <v>1477</v>
       </c>
       <c r="E117" t="s">
         <v>426</v>
@@ -10297,19 +10711,19 @@
         <v>-5.6069593885133298</v>
       </c>
       <c r="I117">
+        <v>-5.6070593885133304</v>
+      </c>
+      <c r="J117">
         <v>-5.60685938851333</v>
-      </c>
-      <c r="J117">
-        <v>-5.6070593885133304</v>
       </c>
       <c r="K117">
         <v>-20.246837341773059</v>
       </c>
       <c r="L117">
+        <v>-20.247198443681221</v>
+      </c>
+      <c r="M117">
         <v>-20.246476239864901</v>
-      </c>
-      <c r="M117">
-        <v>-20.247198443681221</v>
       </c>
       <c r="N117">
         <v>-5.6068594000000003</v>
@@ -10317,8 +10731,11 @@
       <c r="O117">
         <v>-20.2465493563904</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>463</v>
       </c>
@@ -10329,7 +10746,7 @@
         <v>464</v>
       </c>
       <c r="D118" t="s">
-        <v>465</v>
+        <v>1478</v>
       </c>
       <c r="E118" t="s">
         <v>426</v>
@@ -10341,19 +10758,19 @@
         <v>-0.2269148953559742</v>
       </c>
       <c r="I118">
+        <v>-0.22697286015901369</v>
+      </c>
+      <c r="J118">
         <v>-0.22685682214492919</v>
-      </c>
-      <c r="J118">
-        <v>-0.22697286015901369</v>
       </c>
       <c r="K118">
         <v>-0.81939401703354142</v>
       </c>
       <c r="L118">
+        <v>-0.81960332904337929</v>
+      </c>
+      <c r="M118">
         <v>-0.81918431356032695</v>
-      </c>
-      <c r="M118">
-        <v>-0.81960332904337929</v>
       </c>
       <c r="N118">
         <v>-0.22695242404720689</v>
@@ -10361,8 +10778,11 @@
       <c r="O118">
         <v>-0.81953249175897269</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>466</v>
       </c>
@@ -10373,7 +10793,7 @@
         <v>467</v>
       </c>
       <c r="D119" t="s">
-        <v>468</v>
+        <v>1479</v>
       </c>
       <c r="E119" t="s">
         <v>426</v>
@@ -10385,19 +10805,19 @@
         <v>-3.5794517105617207E-2</v>
       </c>
       <c r="I119">
+        <v>-3.5803690518651218E-2</v>
+      </c>
+      <c r="J119">
         <v>-3.578537911865122E-2</v>
-      </c>
-      <c r="J119">
-        <v>-3.5803690518651218E-2</v>
       </c>
       <c r="K119">
         <v>-0.12925468428564879</v>
       </c>
       <c r="L119">
+        <v>-0.12928780965515821</v>
+      </c>
+      <c r="M119">
         <v>-0.1292216868403471</v>
-      </c>
-      <c r="M119">
-        <v>-0.12928780965515821</v>
       </c>
       <c r="N119">
         <v>-3.5800451209835243E-2</v>
@@ -10405,8 +10825,11 @@
       <c r="O119">
         <v>-0.12927657904190989</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -10417,7 +10840,7 @@
         <v>470</v>
       </c>
       <c r="D120" t="s">
-        <v>471</v>
+        <v>1480</v>
       </c>
       <c r="E120" t="s">
         <v>426</v>
@@ -10429,19 +10852,19 @@
         <v>-6.161713331952934E-4</v>
       </c>
       <c r="I120">
+        <v>-6.1630040583892352E-4</v>
+      </c>
+      <c r="J120">
         <v>-6.1598520583892348E-4</v>
-      </c>
-      <c r="J120">
-        <v>-6.1630040583892352E-4</v>
       </c>
       <c r="K120">
         <v>-2.225006441713574E-3</v>
       </c>
       <c r="L120">
+        <v>-2.2254725254926369E-3</v>
+      </c>
+      <c r="M120">
         <v>-2.224334332278111E-3</v>
-      </c>
-      <c r="M120">
-        <v>-2.2254725254926369E-3</v>
       </c>
       <c r="N120">
         <v>-6.1624464657754569E-4</v>
@@ -10449,8 +10872,11 @@
       <c r="O120">
         <v>-2.225279209345545E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>472</v>
       </c>
@@ -10496,8 +10922,11 @@
       <c r="O121">
         <v>-3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>477</v>
       </c>
@@ -10543,8 +10972,11 @@
       <c r="O122">
         <v>95.740062468860501</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>480</v>
       </c>
@@ -10590,8 +11022,11 @@
       <c r="O123">
         <v>0.52653078793062214</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>484</v>
       </c>
@@ -10637,8 +11072,11 @@
       <c r="O124">
         <v>9.3755418464812302E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>488</v>
       </c>
@@ -10684,8 +11122,11 @@
       <c r="O125">
         <v>37.958694992115333</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>492</v>
       </c>
@@ -10731,8 +11172,11 @@
       <c r="O126">
         <v>0.57314188014328482</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>497</v>
       </c>
@@ -10778,8 +11222,11 @@
       <c r="O127">
         <v>0.77418478480902408</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>502</v>
       </c>
@@ -10825,8 +11272,11 @@
       <c r="O128">
         <v>0.50789130583894682</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>504</v>
       </c>
@@ -10872,8 +11322,11 @@
       <c r="O129">
         <v>7.3729317559896146E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>508</v>
       </c>
@@ -10919,8 +11372,11 @@
       <c r="O130">
         <v>0.25004543383725608</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>512</v>
       </c>
@@ -10966,8 +11422,11 @@
       <c r="O131">
         <v>3.4017731116890539</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>516</v>
       </c>
@@ -11013,8 +11472,11 @@
       <c r="O132">
         <v>1.4896578171119801</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>520</v>
       </c>
@@ -11060,8 +11522,11 @@
       <c r="O133">
         <v>185.04745919645049</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>524</v>
       </c>
@@ -11107,8 +11572,11 @@
       <c r="O134">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>528</v>
       </c>
@@ -11154,8 +11622,11 @@
       <c r="O135">
         <v>1.99046706942539E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>532</v>
       </c>
@@ -11201,8 +11672,11 @@
       <c r="O136">
         <v>0.13997938133051349</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>536</v>
       </c>
@@ -11248,8 +11722,11 @@
       <c r="O137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>539</v>
       </c>
@@ -11295,8 +11772,11 @@
       <c r="O138">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>543</v>
       </c>
@@ -11342,8 +11822,11 @@
       <c r="O139">
         <v>3.7735298434386011</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>547</v>
       </c>
@@ -11389,8 +11872,11 @@
       <c r="O140">
         <v>0.25004543383725608</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>551</v>
       </c>
@@ -11436,8 +11922,11 @@
       <c r="O141">
         <v>0.3963520963999852</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>555</v>
       </c>
@@ -11483,8 +11972,11 @@
       <c r="O142">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>559</v>
       </c>
@@ -11530,8 +12022,11 @@
       <c r="O143">
         <v>12.34312058529459</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>563</v>
       </c>
@@ -11577,8 +12072,11 @@
       <c r="O144">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>567</v>
       </c>
@@ -11624,8 +12122,11 @@
       <c r="O145">
         <v>1.3426424056103741</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>571</v>
       </c>
@@ -11671,8 +12172,11 @@
       <c r="O146">
         <v>2.137349686951501</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>575</v>
       </c>
@@ -11718,8 +12222,11 @@
       <c r="O147">
         <v>0.40588330309698117</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>580</v>
       </c>
@@ -11765,8 +12272,11 @@
       <c r="O148">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>585</v>
       </c>
@@ -11812,8 +12322,11 @@
       <c r="O149">
         <v>0.13997938133051349</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -11859,8 +12372,11 @@
       <c r="O150">
         <v>3.4017731116890539</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>593</v>
       </c>
@@ -11906,8 +12422,11 @@
       <c r="O151">
         <v>9.3905088259349498E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>596</v>
       </c>
@@ -11918,7 +12437,7 @@
         <v>597</v>
       </c>
       <c r="D152" t="s">
-        <v>598</v>
+        <v>1481</v>
       </c>
       <c r="E152" t="s">
         <v>26</v>
@@ -11953,8 +12472,36 @@
       <c r="O152">
         <v>54.107611871392891</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152" t="s">
+        <v>598</v>
+      </c>
+      <c r="R152" cm="1">
+        <f t="array" ref="R152:Y152">-Table1[[#This Row],[val_fit]:[pfba_100]]</f>
+        <v>-14.981893642769659</v>
+      </c>
+      <c r="S152">
+        <v>-14.978479982234839</v>
+      </c>
+      <c r="T152">
+        <v>-14.98537625263377</v>
+      </c>
+      <c r="U152">
+        <v>-54.099903822797273</v>
+      </c>
+      <c r="V152">
+        <v>-54.087577029467852</v>
+      </c>
+      <c r="W152">
+        <v>-54.11247959347039</v>
+      </c>
+      <c r="X152">
+        <v>-14.98397415246056</v>
+      </c>
+      <c r="Y152">
+        <v>-54.107611871392891</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>600</v>
       </c>
@@ -11997,8 +12544,11 @@
       <c r="O153">
         <v>85.416246089660149</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P153" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>602</v>
       </c>
@@ -12044,8 +12594,11 @@
       <c r="O154">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>606</v>
       </c>
@@ -12091,8 +12644,11 @@
       <c r="O155">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P155" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>610</v>
       </c>
@@ -12138,8 +12694,11 @@
       <c r="O156">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>614</v>
       </c>
@@ -12185,8 +12744,11 @@
       <c r="O157">
         <v>10.00437927919719</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>619</v>
       </c>
@@ -12232,8 +12794,11 @@
       <c r="O158">
         <v>100</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>623</v>
       </c>
@@ -12279,8 +12844,11 @@
       <c r="O159">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>627</v>
       </c>
@@ -12326,8 +12894,11 @@
       <c r="O160">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>631</v>
       </c>
@@ -12373,8 +12944,11 @@
       <c r="O161">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>635</v>
       </c>
@@ -12420,8 +12994,11 @@
       <c r="O162">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>639</v>
       </c>
@@ -12467,8 +13044,11 @@
       <c r="O163">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>643</v>
       </c>
@@ -12514,8 +13094,11 @@
       <c r="O164">
         <v>0.83858856295838369</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>647</v>
       </c>
@@ -12561,8 +13144,11 @@
       <c r="O165">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>650</v>
       </c>
@@ -12608,8 +13194,11 @@
       <c r="O166">
         <v>8.5190352675541939E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>654</v>
       </c>
@@ -12655,8 +13244,11 @@
       <c r="O167">
         <v>0.75339857138605326</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>658</v>
       </c>
@@ -12702,8 +13294,11 @@
       <c r="O168">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>662</v>
       </c>
@@ -12746,8 +13341,11 @@
       <c r="O169">
         <v>5.3765630874120509</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P169" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>665</v>
       </c>
@@ -12790,8 +13388,11 @@
       <c r="O170">
         <v>16.615657247692329</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P170" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>668</v>
       </c>
@@ -12837,8 +13438,11 @@
       <c r="O171">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P171" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1459</v>
       </c>
@@ -12884,8 +13488,11 @@
       <c r="O172">
         <v>2.4787597953337221</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>676</v>
       </c>
@@ -12931,8 +13538,11 @@
       <c r="O173">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>680</v>
       </c>
@@ -12978,8 +13588,11 @@
       <c r="O174">
         <v>7.222064229536556E-7</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>684</v>
       </c>
@@ -13025,8 +13638,11 @@
       <c r="O175">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P175" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>688</v>
       </c>
@@ -13072,8 +13688,11 @@
       <c r="O176">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P176" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>692</v>
       </c>
@@ -13119,8 +13738,11 @@
       <c r="O177">
         <v>0.61640209868131068</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P177" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>696</v>
       </c>
@@ -13166,8 +13788,11 @@
       <c r="O178">
         <v>0.39200637158083401</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P178" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>700</v>
       </c>
@@ -13210,8 +13835,11 @@
       <c r="O179">
         <v>0.39200637158083401</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P179" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>703</v>
       </c>
@@ -13257,8 +13885,11 @@
       <c r="O180">
         <v>0.41022372713840932</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P180" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>706</v>
       </c>
@@ -13304,8 +13935,11 @@
       <c r="O181">
         <v>0.13997938133051349</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P181" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>710</v>
       </c>
@@ -13351,8 +13985,11 @@
       <c r="O182">
         <v>9.3905088259349498E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P182" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>714</v>
       </c>
@@ -13398,8 +14035,11 @@
       <c r="O183">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P183" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>718</v>
       </c>
@@ -13445,8 +14085,11 @@
       <c r="O184">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P184" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>722</v>
       </c>
@@ -13492,8 +14135,11 @@
       <c r="O185">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P185" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>725</v>
       </c>
@@ -13539,8 +14185,11 @@
       <c r="O186">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P186" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>729</v>
       </c>
@@ -13586,8 +14235,11 @@
       <c r="O187">
         <v>1.0209484997892191</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P187" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>733</v>
       </c>
@@ -13633,8 +14285,11 @@
       <c r="O188">
         <v>0.39200637158083401</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P188" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>736</v>
       </c>
@@ -13680,8 +14335,11 @@
       <c r="O189">
         <v>0.57314188014328482</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P189" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>740</v>
       </c>
@@ -13727,8 +14385,11 @@
       <c r="O190">
         <v>0.8523412403054812</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P190" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>744</v>
       </c>
@@ -13771,8 +14432,11 @@
       <c r="O191">
         <v>-3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P191" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>747</v>
       </c>
@@ -13815,8 +14479,11 @@
       <c r="O192">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P192" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>750</v>
       </c>
@@ -13862,8 +14529,11 @@
       <c r="O193">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P193" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>754</v>
       </c>
@@ -13909,8 +14579,11 @@
       <c r="O194">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P194" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -13956,8 +14629,11 @@
       <c r="O195">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P195" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -14003,8 +14679,11 @@
       <c r="O196">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P196" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>766</v>
       </c>
@@ -14050,8 +14729,11 @@
       <c r="O197">
         <v>1.5125121123419721E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P197" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>771</v>
       </c>
@@ -14097,8 +14779,11 @@
       <c r="O198">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P198" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>775</v>
       </c>
@@ -14144,8 +14829,11 @@
       <c r="O199">
         <v>0.5425247656134764</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P199" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -14191,8 +14879,11 @@
       <c r="O200">
         <v>0.5425247656134764</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P200" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>783</v>
       </c>
@@ -14238,8 +14929,11 @@
       <c r="O201">
         <v>-3.4770927948769281</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P201" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>787</v>
       </c>
@@ -14285,8 +14979,11 @@
       <c r="O202">
         <v>0.46128013129504108</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P202" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>790</v>
       </c>
@@ -14332,8 +15029,11 @@
       <c r="O203">
         <v>4.2978887542298576</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P203" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>794</v>
       </c>
@@ -14379,8 +15079,11 @@
       <c r="O204">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P204" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>797</v>
       </c>
@@ -14426,8 +15129,11 @@
       <c r="O205">
         <v>0.155723310444006</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P205" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>801</v>
       </c>
@@ -14473,8 +15179,11 @@
       <c r="O206">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P206" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>805</v>
       </c>
@@ -14520,8 +15229,11 @@
       <c r="O207">
         <v>0.2315956513167988</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P207" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>809</v>
       </c>
@@ -14567,8 +15279,11 @@
       <c r="O208">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P208" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>813</v>
       </c>
@@ -14611,8 +15326,11 @@
       <c r="O209">
         <v>8.9811760576676433E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P209" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>816</v>
       </c>
@@ -14655,8 +15373,11 @@
       <c r="O210">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P210" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>819</v>
       </c>
@@ -14702,8 +15423,11 @@
       <c r="O211">
         <v>1.5125121123419721E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P211" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>823</v>
       </c>
@@ -14746,8 +15470,11 @@
       <c r="O212">
         <v>1.327260442122343E-4</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P212" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>826</v>
       </c>
@@ -14793,8 +15520,11 @@
       <c r="O213">
         <v>0.2315956513167988</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P213" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>830</v>
       </c>
@@ -14840,8 +15570,11 @@
       <c r="O214">
         <v>0.94898133226296832</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P214" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>834</v>
       </c>
@@ -14887,8 +15620,11 @@
       <c r="O215">
         <v>1.823062816214726</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P215" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>837</v>
       </c>
@@ -14934,8 +15670,11 @@
       <c r="O216">
         <v>6.5727992572142388E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P216" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>839</v>
       </c>
@@ -14981,8 +15720,11 @@
       <c r="O217">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P217" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>841</v>
       </c>
@@ -15028,8 +15770,11 @@
       <c r="O218">
         <v>3.767160488917458E-3</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P218" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>843</v>
       </c>
@@ -15075,8 +15820,11 @@
       <c r="O219">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P219" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>845</v>
       </c>
@@ -15122,8 +15870,11 @@
       <c r="O220">
         <v>3.767160488917458E-3</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P220" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>847</v>
       </c>
@@ -15169,8 +15920,11 @@
       <c r="O221">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P221" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>849</v>
       </c>
@@ -15216,8 +15970,11 @@
       <c r="O222">
         <v>11.23573830351156</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P222" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>853</v>
       </c>
@@ -15260,8 +16017,11 @@
       <c r="O223">
         <v>4.872233988309616</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P223" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>856</v>
       </c>
@@ -15307,8 +16067,11 @@
       <c r="O224">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P224" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>860</v>
       </c>
@@ -15351,8 +16114,11 @@
       <c r="O225">
         <v>20.2465493563904</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P225" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>863</v>
       </c>
@@ -15395,8 +16161,11 @@
       <c r="O226">
         <v>18.97934749605767</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P226" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>865</v>
       </c>
@@ -15442,8 +16211,11 @@
       <c r="O227">
         <v>2.017481469554737</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P227" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>869</v>
       </c>
@@ -15489,8 +16261,11 @@
       <c r="O228">
         <v>0.25658878814920821</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P228" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>873</v>
       </c>
@@ -15536,8 +16311,11 @@
       <c r="O229">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P229" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>876</v>
       </c>
@@ -15583,8 +16361,11 @@
       <c r="O230">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P230" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>880</v>
       </c>
@@ -15630,8 +16411,11 @@
       <c r="O231">
         <v>0.35958059827813749</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P231" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>884</v>
       </c>
@@ -15677,8 +16461,11 @@
       <c r="O232">
         <v>0.1026794558510018</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P232" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>888</v>
       </c>
@@ -15724,8 +16511,11 @@
       <c r="O233">
         <v>0.35958059827813749</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P233" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>892</v>
       </c>
@@ -15771,8 +16561,11 @@
       <c r="O234">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P234" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1460</v>
       </c>
@@ -15818,8 +16611,11 @@
       <c r="O235">
         <v>1.5125121123419721E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P235" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>900</v>
       </c>
@@ -15865,8 +16661,11 @@
       <c r="O236">
         <v>8.5190352675541939E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P236" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>904</v>
       </c>
@@ -15912,8 +16711,11 @@
       <c r="O237">
         <v>4.2345256020477721E-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P237" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>908</v>
       </c>
@@ -15959,8 +16761,11 @@
       <c r="O238">
         <v>8.1044307083156593</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P238" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>912</v>
       </c>
@@ -16006,8 +16811,11 @@
       <c r="O239">
         <v>2.9160257804245791</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P239" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1461</v>
       </c>
@@ -16053,8 +16861,11 @@
       <c r="O240">
         <v>3.6256801737039913E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P240" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1462</v>
       </c>
@@ -16100,8 +16911,11 @@
       <c r="O241">
         <v>3.6256801737039913E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P241" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>924</v>
       </c>
@@ -16147,8 +16961,11 @@
       <c r="O242">
         <v>96.266593256791126</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P242" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>928</v>
       </c>
@@ -16194,8 +17011,11 @@
       <c r="O243">
         <v>6.403205356449698</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P243" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>932</v>
       </c>
@@ -16241,8 +17061,11 @@
       <c r="O244">
         <v>95.07309874187284</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P244" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>936</v>
       </c>
@@ -16288,8 +17111,11 @@
       <c r="O245">
         <v>185.04745919645049</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P245" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>940</v>
       </c>
@@ -16335,8 +17161,11 @@
       <c r="O246">
         <v>3.4017731116890539</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P246" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>944</v>
       </c>
@@ -16382,8 +17211,11 @@
       <c r="O247">
         <v>1.4896578171119801</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P247" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>948</v>
       </c>
@@ -16429,8 +17261,11 @@
       <c r="O248">
         <v>178.6442538400008</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P248" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>952</v>
       </c>
@@ -16476,8 +17311,11 @@
       <c r="O249">
         <v>0.25024507250781147</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P249" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>956</v>
       </c>
@@ -16523,8 +17361,11 @@
       <c r="O250">
         <v>0.81953249175897269</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P250" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>960</v>
       </c>
@@ -16570,8 +17411,11 @@
       <c r="O251">
         <v>40.526855144600681</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P251" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>963</v>
       </c>
@@ -16617,8 +17461,11 @@
       <c r="O252">
         <v>0.5425247656134764</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P252" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1463</v>
       </c>
@@ -16664,8 +17511,11 @@
       <c r="O253">
         <v>3.6256801737039913E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P253" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>970</v>
       </c>
@@ -16711,8 +17561,11 @@
       <c r="O254">
         <v>0.28171526477804848</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P254" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>974</v>
       </c>
@@ -16758,8 +17611,11 @@
       <c r="O255">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P255" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>978</v>
       </c>
@@ -16805,8 +17661,11 @@
       <c r="O256">
         <v>15.49577699601657</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P256" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>981</v>
       </c>
@@ -16852,8 +17711,11 @@
       <c r="O257">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P257" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>985</v>
       </c>
@@ -16896,8 +17758,11 @@
       <c r="O258">
         <v>15.49577699601657</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P258" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>988</v>
       </c>
@@ -16943,8 +17808,11 @@
       <c r="O259">
         <v>0.13044710979352631</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P259" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>992</v>
       </c>
@@ -16990,8 +17858,11 @@
       <c r="O260">
         <v>0.25024507250781147</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P260" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>996</v>
       </c>
@@ -17037,8 +17908,11 @@
       <c r="O261">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P261" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1000</v>
       </c>
@@ -17084,8 +17958,11 @@
       <c r="O262">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P262" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1003</v>
       </c>
@@ -17131,8 +18008,11 @@
       <c r="O263">
         <v>0.61640209868131068</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P263" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1007</v>
       </c>
@@ -17178,8 +18058,11 @@
       <c r="O264">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P264" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1010</v>
       </c>
@@ -17225,8 +18108,11 @@
       <c r="O265">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P265" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1014</v>
       </c>
@@ -17272,8 +18158,11 @@
       <c r="O266">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P266" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1017</v>
       </c>
@@ -17319,8 +18208,11 @@
       <c r="O267">
         <v>0.28177315592484148</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P267" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1021</v>
       </c>
@@ -17366,8 +18258,11 @@
       <c r="O268">
         <v>0.12845057121356779</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P268" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1025</v>
       </c>
@@ -17413,8 +18308,11 @@
       <c r="O269">
         <v>1.345707707981094</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P269" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1029</v>
       </c>
@@ -17460,8 +18358,11 @@
       <c r="O270">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P270" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1032</v>
       </c>
@@ -17507,8 +18408,11 @@
       <c r="O271">
         <v>4.6000870153089152E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P271" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1036</v>
       </c>
@@ -17554,8 +18458,11 @@
       <c r="O272">
         <v>6.403205356449698</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P272" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1040</v>
       </c>
@@ -17601,8 +18508,11 @@
       <c r="O273">
         <v>6.403205356449698</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P273" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1464</v>
       </c>
@@ -17648,8 +18558,11 @@
       <c r="O274">
         <v>5.4369670834428653E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P274" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1048</v>
       </c>
@@ -17695,8 +18608,11 @@
       <c r="O275">
         <v>177.79634939942531</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P275" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1052</v>
       </c>
@@ -17742,8 +18658,11 @@
       <c r="O276">
         <v>168.63197798566779</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P276" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1056</v>
       </c>
@@ -17789,8 +18708,11 @@
       <c r="O277">
         <v>1.129137166495171</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P277" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1060</v>
       </c>
@@ -17836,8 +18758,11 @@
       <c r="O278">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P278" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1064</v>
       </c>
@@ -17883,8 +18808,11 @@
       <c r="O279">
         <v>3.767160488917458E-3</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P279" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1067</v>
       </c>
@@ -17930,8 +18858,11 @@
       <c r="O280">
         <v>3.767160488917458E-3</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P280" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1070</v>
       </c>
@@ -17977,8 +18908,11 @@
       <c r="O281">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P281" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1073</v>
       </c>
@@ -18024,8 +18958,11 @@
       <c r="O282">
         <v>1.2293928021921861</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P282" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1077</v>
       </c>
@@ -18071,8 +19008,11 @@
       <c r="O283">
         <v>2.1723803094968681</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P283" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1081</v>
       </c>
@@ -18118,8 +19058,11 @@
       <c r="O284">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P284" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1085</v>
       </c>
@@ -18165,8 +19108,11 @@
       <c r="O285">
         <v>0.43726454067801213</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P285" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1089</v>
       </c>
@@ -18212,8 +19158,11 @@
       <c r="O286">
         <v>8.5189991572330467E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P286" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1093</v>
       </c>
@@ -18259,8 +19208,11 @@
       <c r="O287">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P287" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1097</v>
       </c>
@@ -18306,8 +19258,11 @@
       <c r="O288">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P288" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1101</v>
       </c>
@@ -18353,8 +19308,11 @@
       <c r="O289">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P289" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1105</v>
       </c>
@@ -18400,8 +19358,11 @@
       <c r="O290">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P290" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1108</v>
       </c>
@@ -18447,8 +19408,11 @@
       <c r="O291">
         <v>0.42395240083936381</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P291" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1111</v>
       </c>
@@ -18494,8 +19458,11 @@
       <c r="O292">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P292" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1115</v>
       </c>
@@ -18541,8 +19508,11 @@
       <c r="O293">
         <v>8.5190352675541939E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P293" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1119</v>
       </c>
@@ -18588,8 +19558,11 @@
       <c r="O294">
         <v>0.12927657904190989</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P294" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1465</v>
       </c>
@@ -18635,8 +19608,11 @@
       <c r="O295">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P295" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1127</v>
       </c>
@@ -18682,8 +19658,11 @@
       <c r="O296">
         <v>4.6952544129674749E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P296" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1131</v>
       </c>
@@ -18729,8 +19708,11 @@
       <c r="O297">
         <v>0.3963520963999852</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P297" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1135</v>
       </c>
@@ -18776,8 +19758,11 @@
       <c r="O298">
         <v>9.5703949752183395E-3</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P298" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1139</v>
       </c>
@@ -18823,8 +19808,11 @@
       <c r="O299">
         <v>0.28466146039808637</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P299" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1143</v>
       </c>
@@ -18870,8 +19858,11 @@
       <c r="O300">
         <v>7.7116982159616987E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P300" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1147</v>
       </c>
@@ -18917,8 +19908,11 @@
       <c r="O301">
         <v>0.82667296261898615</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P301" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1151</v>
       </c>
@@ -18964,8 +19958,11 @@
       <c r="O302">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P302" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1155</v>
       </c>
@@ -19011,8 +20008,11 @@
       <c r="O303">
         <v>0.38268872088129641</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P303" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1159</v>
       </c>
@@ -19058,8 +20058,11 @@
       <c r="O304">
         <v>0.75339857138605326</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P304" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1163</v>
       </c>
@@ -19105,8 +20108,11 @@
       <c r="O305">
         <v>0.38268872088129641</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P305" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1167</v>
       </c>
@@ -19152,8 +20158,11 @@
       <c r="O306">
         <v>5.5815537528825761E-3</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P306" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1171</v>
       </c>
@@ -19199,8 +20208,11 @@
       <c r="O307">
         <v>88.288274789335532</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P307" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1175</v>
       </c>
@@ -19246,8 +20258,11 @@
       <c r="O308">
         <v>0.103887781159142</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P308" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1179</v>
       </c>
@@ -19293,8 +20308,11 @@
       <c r="O309">
         <v>2.0345208202703021E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P309" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1183</v>
       </c>
@@ -19340,8 +20358,11 @@
       <c r="O310">
         <v>2.0345208202703021E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P310" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1186</v>
       </c>
@@ -19387,8 +20408,11 @@
       <c r="O311">
         <v>0.57314188014328482</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P311" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1190</v>
       </c>
@@ -19434,8 +20458,11 @@
       <c r="O312">
         <v>0.61640209868131068</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P312" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1194</v>
       </c>
@@ -19481,8 +20508,11 @@
       <c r="O313">
         <v>0.13044710979352631</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P313" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1197</v>
       </c>
@@ -19528,8 +20558,11 @@
       <c r="O314">
         <v>1.99046706942539E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P314" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1201</v>
       </c>
@@ -19575,8 +20608,11 @@
       <c r="O315">
         <v>0.31908188216137362</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P315" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1205</v>
       </c>
@@ -19622,8 +20658,11 @@
       <c r="O316">
         <v>-3.123542779274561E-4</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P316" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1208</v>
       </c>
@@ -19669,8 +20708,11 @@
       <c r="O317">
         <v>0.53310262845360146</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P317" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1211</v>
       </c>
@@ -19716,8 +20758,11 @@
       <c r="O318">
         <v>1.0209484997892191</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P318" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1213</v>
       </c>
@@ -19760,8 +20805,11 @@
       <c r="O319">
         <v>1.0209484997892191</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P319" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1216</v>
       </c>
@@ -19804,8 +20852,11 @@
       <c r="O320">
         <v>2.225279209345545E-3</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P320" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1219</v>
       </c>
@@ -19848,8 +20899,11 @@
       <c r="O321">
         <v>0.16667143600911011</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P321" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1222</v>
       </c>
@@ -19895,8 +20949,11 @@
       <c r="O322">
         <v>0.17956845396479679</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P322" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1226</v>
       </c>
@@ -19942,8 +20999,11 @@
       <c r="O323">
         <v>4.8683496003112448E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P323" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1229</v>
       </c>
@@ -19989,8 +21049,11 @@
       <c r="O324">
         <v>5.4078803120516739E-3</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P324" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1233</v>
       </c>
@@ -20036,8 +21099,11 @@
       <c r="O325">
         <v>5.4078803120516739E-3</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P325" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1236</v>
       </c>
@@ -20083,8 +21149,11 @@
       <c r="O326">
         <v>5.4078803120516739E-3</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P326" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1239</v>
       </c>
@@ -20130,8 +21199,11 @@
       <c r="O327">
         <v>2.7039401560258369E-3</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P327" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1242</v>
       </c>
@@ -20177,8 +21249,11 @@
       <c r="O328">
         <v>1.351970078012918E-3</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P328" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1246</v>
       </c>
@@ -20224,8 +21299,11 @@
       <c r="O329">
         <v>9.3176506995375948E-3</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P329" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1250</v>
       </c>
@@ -20271,8 +21349,11 @@
       <c r="O330">
         <v>9.543453418146127</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P330" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1255</v>
       </c>
@@ -20318,8 +21399,11 @@
       <c r="O331">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P331" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1259</v>
       </c>
@@ -20365,8 +21449,11 @@
       <c r="O332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P332" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1263</v>
       </c>
@@ -20412,8 +21499,11 @@
       <c r="O333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P333" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1267</v>
       </c>
@@ -20459,8 +21549,11 @@
       <c r="O334">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P334" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1271</v>
       </c>
@@ -20506,8 +21599,11 @@
       <c r="O335">
         <v>7.1863511219214984E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P335" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1275</v>
       </c>
@@ -20553,8 +21649,11 @@
       <c r="O336">
         <v>-1.5888541304980421E-5</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P336" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1279</v>
       </c>
@@ -20600,8 +21699,11 @@
       <c r="O337">
         <v>0.43077432367932977</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P337" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1282</v>
       </c>
@@ -20647,8 +21749,11 @@
       <c r="O338">
         <v>2.0812573315833328E-3</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P338" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1286</v>
       </c>
@@ -20694,8 +21799,11 @@
       <c r="O339">
         <v>2.9023118022956691</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P339" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1290</v>
       </c>
@@ -20741,8 +21849,11 @@
       <c r="O340">
         <v>37.958694992115333</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P340" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1294</v>
       </c>
@@ -20788,8 +21899,11 @@
       <c r="O341">
         <v>7.1863150116003513E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P341" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1298</v>
       </c>
@@ -20835,8 +21949,11 @@
       <c r="O342">
         <v>7.3780576397586577</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P342" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1303</v>
       </c>
@@ -20882,8 +21999,11 @@
       <c r="O343">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P343" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1308</v>
       </c>
@@ -20929,8 +22049,11 @@
       <c r="O344">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P344" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1312</v>
       </c>
@@ -20976,8 +22099,11 @@
       <c r="O345">
         <v>24.343294108327651</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P345" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1316</v>
       </c>
@@ -21023,8 +22149,11 @@
       <c r="O346">
         <v>12.75098496743464</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P346" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1320</v>
       </c>
@@ -21070,8 +22199,11 @@
       <c r="O347">
         <v>0.86441591635303672</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P347" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1324</v>
       </c>
@@ -21117,8 +22249,11 @@
       <c r="O348">
         <v>165.72966582226891</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P348" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1466</v>
       </c>
@@ -21164,8 +22299,11 @@
       <c r="O349">
         <v>7.3780576397586577</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P349" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1332</v>
       </c>
@@ -21208,8 +22346,11 @@
       <c r="O350">
         <v>7.3780576397586577</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P350" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1467</v>
       </c>
@@ -21255,8 +22396,11 @@
       <c r="O351">
         <v>7.4517865962153422</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P351" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1338</v>
       </c>
@@ -21299,8 +22443,11 @@
       <c r="O352">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P352" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1341</v>
       </c>
@@ -21343,8 +22490,11 @@
       <c r="O353">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P353" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1344</v>
       </c>
@@ -21390,8 +22540,11 @@
       <c r="O354">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P354" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1347</v>
       </c>
@@ -21434,8 +22587,11 @@
       <c r="O355">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P355" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1349</v>
       </c>
@@ -21478,8 +22634,11 @@
       <c r="O356">
         <v>7.222064229536556E-7</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P356" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1352</v>
       </c>
@@ -21525,8 +22684,11 @@
       <c r="O357">
         <v>0.35272488968825799</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P357" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1356</v>
       </c>
@@ -21572,8 +22734,11 @@
       <c r="O358">
         <v>0.35272488968825799</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P358" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1360</v>
       </c>
@@ -21616,8 +22781,11 @@
       <c r="O359">
         <v>7.1863872322426456E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P359" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1363</v>
       </c>
@@ -21663,8 +22831,11 @@
       <c r="O360">
         <v>7.1863872322426456E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P360" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1367</v>
       </c>
@@ -21710,8 +22881,11 @@
       <c r="O361">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P361" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1369</v>
       </c>
@@ -21757,8 +22931,11 @@
       <c r="O362">
         <v>3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P362" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1372</v>
       </c>
@@ -21804,8 +22981,11 @@
       <c r="O363">
         <v>8.0799986956675429</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P363" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1376</v>
       </c>
@@ -21851,8 +23031,11 @@
       <c r="O364">
         <v>0.9026772315664171</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P364" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1380</v>
       </c>
@@ -21898,8 +23081,11 @@
       <c r="O365">
         <v>6.9401442590314444</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P365" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1384</v>
       </c>
@@ -21945,8 +23131,11 @@
       <c r="O366">
         <v>7.8428214905978626</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P366" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1387</v>
       </c>
@@ -21992,8 +23181,11 @@
       <c r="O367">
         <v>-7.150824607534612</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P367" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1390</v>
       </c>
@@ -22039,8 +23231,11 @@
       <c r="O368">
         <v>-2.717010881089764</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P368" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1393</v>
       </c>
@@ -22086,8 +23281,11 @@
       <c r="O369">
         <v>4.4895452674283201</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P369" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1397</v>
       </c>
@@ -22133,8 +23331,11 @@
       <c r="O370">
         <v>1.7725343863385561</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P370" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1400</v>
       </c>
@@ -22180,8 +23381,11 @@
       <c r="O371">
         <v>1.7725343863385561</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P371" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1402</v>
       </c>
@@ -22227,8 +23431,11 @@
       <c r="O372">
         <v>-1.7725343863385561</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P372" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1404</v>
       </c>
@@ -22274,8 +23481,11 @@
       <c r="O373">
         <v>7.2065561485180849</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P373" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1408</v>
       </c>
@@ -22318,8 +23528,11 @@
       <c r="O374">
         <v>1.7725343863385561</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P374" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1411</v>
       </c>
@@ -22365,8 +23578,11 @@
       <c r="O375">
         <v>-2.717010881089764</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P375" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1415</v>
       </c>
@@ -22412,8 +23628,11 @@
       <c r="O376">
         <v>1.083309634430483E-6</v>
       </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P376" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1419</v>
       </c>
@@ -22459,8 +23678,11 @@
       <c r="O377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P377" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1423</v>
       </c>
@@ -22506,8 +23728,11 @@
       <c r="O378">
         <v>7.222064229536556E-7</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P378" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1427</v>
       </c>
@@ -22553,8 +23778,11 @@
       <c r="O379">
         <v>7.222064229536556E-7</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P379" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1430</v>
       </c>
@@ -22600,8 +23828,11 @@
       <c r="O380">
         <v>2.5951408850191308E-2</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P380" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1434</v>
       </c>
@@ -22647,8 +23878,11 @@
       <c r="O381">
         <v>9.3176506995375948E-3</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P381" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1438</v>
       </c>
@@ -22691,8 +23925,11 @@
       <c r="O382">
         <v>9.3176506995375948E-3</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P382" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1441</v>
       </c>
@@ -22738,8 +23975,11 @@
       <c r="O383">
         <v>-3.611032114768278E-7</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P383" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1445</v>
       </c>
@@ -22785,8 +24025,11 @@
       <c r="O384">
         <v>0.8266726015157746</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P384" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1449</v>
       </c>
@@ -22832,9 +24075,13 @@
       <c r="O385">
         <v>0.4027202006764109</v>
       </c>
+      <c r="P385" t="s">
+        <v>1451</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
+++ b/parameterization/kapp/datasets/raw_data_files/SC_MFA_flux_CENPK_batch_Rabinowitz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejm6426/Documents/scRBA/parameterization/kapp/datasets/raw_data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEA105-F377-ED48-886D-20CFCAB3DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D23EB1-E81A-FB4E-ACF1-1BCD5038D253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21340" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rxns" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1502">
   <si>
     <t>id</t>
   </si>
@@ -4467,43 +4467,103 @@
     <t>reaction (as written in original data)</t>
   </si>
   <si>
-    <t>ca2_e --&gt; ca2_out</t>
-  </si>
-  <si>
-    <t>cu2_e --&gt; cu2_out</t>
-  </si>
-  <si>
-    <t>fe2_e --&gt; fe2_out</t>
-  </si>
-  <si>
-    <t>glc__D_e --&gt; glc__D_out</t>
-  </si>
-  <si>
-    <t>k_e --&gt; k_out</t>
-  </si>
-  <si>
-    <t>mg2_e --&gt; mg2_out</t>
-  </si>
-  <si>
-    <t>mn2_e --&gt; mn2_out</t>
-  </si>
-  <si>
-    <t>nh4_e --&gt; nh4_out</t>
-  </si>
-  <si>
-    <t>o2_e --&gt; o2_out</t>
-  </si>
-  <si>
-    <t>pi_e --&gt; pi_out</t>
-  </si>
-  <si>
-    <t>so4_e --&gt; so4_out</t>
-  </si>
-  <si>
-    <t>zn2_e --&gt; zn2_out</t>
-  </si>
-  <si>
     <t>h2o_e --&gt; h2o_c</t>
+  </si>
+  <si>
+    <t>h_e --&gt; h_c</t>
+  </si>
+  <si>
+    <t>2ippm_c + h2o_c --&gt; 3c3hmp_c</t>
+  </si>
+  <si>
+    <t>3c2hmp_c --&gt; 2ippm_c + h2o_c</t>
+  </si>
+  <si>
+    <t>akg_m + ala__L_m --&gt; glu__L_m + pyr_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhor__S_c + h2o_c--&gt; cbasp_c + h_c </t>
+  </si>
+  <si>
+    <t>akg_c + leu__L_c --&gt; 4mop_c + glu__L_c</t>
+  </si>
+  <si>
+    <t>man6p_c --&gt; f6p_c</t>
+  </si>
+  <si>
+    <t>orot5p_c + ppi_c --&gt; orot_c + prpp_c</t>
+  </si>
+  <si>
+    <t>akg_c + phe__L_c --&gt; glu__L_c + phpyr_c</t>
+  </si>
+  <si>
+    <t>man1p_c --&gt; man6p_c</t>
+  </si>
+  <si>
+    <t>akg_m + val__L_m --&gt; 3mob_m + glu__L_m</t>
+  </si>
+  <si>
+    <t>dhap_m --&gt; dhap_c</t>
+  </si>
+  <si>
+    <t>acald_m --&gt; acald_c</t>
+  </si>
+  <si>
+    <t>akg_m + ile__L_m --&gt; 3mop_m + glu__L_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2_e &lt;=&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cu2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">etoh_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glc__D_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mn2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nh4_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pi_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so4_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zn2_e --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyc_e --&gt; </t>
+  </si>
+  <si>
+    <t>4.0 focytC_m + 8.0 h_m + o2_m --&gt; 4.0 ficytC_m + 2.0 h2o_m + 4.0 h_c</t>
   </si>
 </sst>
 </file>
@@ -4934,10 +4994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:AC385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4951,7 +5011,7 @@
     <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5061,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5050,8 +5110,12 @@
       <c r="P2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC2" t="b" cm="1">
+        <f t="array" ref="AC2:AC385">SIGN(Table1[pfba])=SIGN(Table1[val_fit])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5100,8 +5164,11 @@
       <c r="P3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5150,8 +5217,11 @@
       <c r="P4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5200,8 +5270,11 @@
       <c r="P5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5250,8 +5323,11 @@
       <c r="P6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -5300,8 +5376,11 @@
       <c r="P7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5350,8 +5429,11 @@
       <c r="P8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5400,8 +5482,11 @@
       <c r="P9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5450,8 +5535,11 @@
       <c r="P10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5500,8 +5588,11 @@
       <c r="P11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -5550,8 +5641,11 @@
       <c r="P12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5600,8 +5694,11 @@
       <c r="P13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1452</v>
       </c>
@@ -5650,8 +5747,11 @@
       <c r="P14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1454</v>
       </c>
@@ -5700,8 +5800,11 @@
       <c r="P15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -5750,8 +5853,11 @@
       <c r="P16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -5800,8 +5906,11 @@
       <c r="P17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +5959,11 @@
       <c r="P18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -5900,8 +6012,11 @@
       <c r="P19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -5950,8 +6065,11 @@
       <c r="P20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -6000,8 +6118,11 @@
       <c r="P21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -6050,8 +6171,11 @@
       <c r="P22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -6100,8 +6224,11 @@
       <c r="P23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6150,8 +6277,11 @@
       <c r="P24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -6200,8 +6330,11 @@
       <c r="P25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6250,8 +6383,11 @@
       <c r="P26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -6300,8 +6436,11 @@
       <c r="P27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -6350,8 +6489,11 @@
       <c r="P28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -6400,8 +6542,11 @@
       <c r="P29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -6450,8 +6595,11 @@
       <c r="P30" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -6500,8 +6648,11 @@
       <c r="P31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -6550,8 +6701,11 @@
       <c r="P32" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -6600,8 +6754,11 @@
       <c r="P33" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -6650,8 +6807,11 @@
       <c r="P34" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -6700,8 +6860,11 @@
       <c r="P35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -6750,8 +6913,11 @@
       <c r="P36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -6800,8 +6966,11 @@
       <c r="P37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -6812,7 +6981,7 @@
         <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>1473</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
@@ -6824,34 +6993,37 @@
         <v>170</v>
       </c>
       <c r="H38">
-        <v>0.18004035811008259</v>
+        <v>-0.18004036080348851</v>
       </c>
       <c r="I38">
-        <v>2.1269716439786899E-2</v>
+        <v>-0.34219573463502789</v>
       </c>
       <c r="J38">
-        <v>0.34219573463502789</v>
+        <v>-2.1269716439786899E-2</v>
       </c>
       <c r="K38">
-        <v>0.65012916859666137</v>
+        <v>-0.65012917832260142</v>
       </c>
       <c r="L38">
-        <v>7.6805351924652682E-2</v>
+        <v>-1.2356753274150241</v>
       </c>
       <c r="M38">
-        <v>1.2356753274150241</v>
+        <v>-7.6805351924652682E-2</v>
       </c>
       <c r="N38">
-        <v>2.1350541589560821E-2</v>
+        <v>-2.1350541589560821E-2</v>
       </c>
       <c r="O38">
-        <v>7.709749134759987E-2</v>
+        <v>-7.709749134759987E-2</v>
       </c>
       <c r="P38" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -6897,8 +7069,11 @@
       <c r="P39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -6947,8 +7122,11 @@
       <c r="P40" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -6997,8 +7175,11 @@
       <c r="P41" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -7047,8 +7228,11 @@
       <c r="P42" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -7097,8 +7281,11 @@
       <c r="P43" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -7147,8 +7334,11 @@
       <c r="P44" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -7197,8 +7387,11 @@
       <c r="P45" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -7247,8 +7440,11 @@
       <c r="P46" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -7297,8 +7493,11 @@
       <c r="P47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -7347,8 +7546,11 @@
       <c r="P48" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -7397,8 +7599,11 @@
       <c r="P49" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -7447,8 +7652,11 @@
       <c r="P50" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -7497,8 +7705,11 @@
       <c r="P51" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -7547,8 +7758,11 @@
       <c r="P52" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>230</v>
       </c>
@@ -7597,8 +7811,11 @@
       <c r="P53" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>233</v>
       </c>
@@ -7644,8 +7861,11 @@
       <c r="P54" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>237</v>
       </c>
@@ -7694,8 +7914,11 @@
       <c r="P55" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -7744,8 +7967,11 @@
       <c r="P56" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>246</v>
       </c>
@@ -7794,8 +8020,11 @@
       <c r="P57" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -7841,8 +8070,11 @@
       <c r="P58" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -7891,8 +8123,11 @@
       <c r="P59" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -7941,8 +8176,11 @@
       <c r="P60" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1455</v>
       </c>
@@ -7991,8 +8229,11 @@
       <c r="P61" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -8041,8 +8282,11 @@
       <c r="P62" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -8091,8 +8335,11 @@
       <c r="P63" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -8141,8 +8388,11 @@
       <c r="P64" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -8191,8 +8441,11 @@
       <c r="P65" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -8241,8 +8494,11 @@
       <c r="P66" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>286</v>
       </c>
@@ -8291,8 +8547,11 @@
       <c r="P67" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -8341,8 +8600,11 @@
       <c r="P68" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>290</v>
       </c>
@@ -8391,8 +8653,11 @@
       <c r="P69" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -8441,8 +8706,11 @@
       <c r="P70" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -8491,8 +8759,11 @@
       <c r="P71" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -8538,8 +8809,11 @@
       <c r="P72" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -8588,8 +8862,11 @@
       <c r="P73" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>308</v>
       </c>
@@ -8638,8 +8915,11 @@
       <c r="P74" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1456</v>
       </c>
@@ -8688,8 +8968,11 @@
       <c r="P75" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>316</v>
       </c>
@@ -8738,8 +9021,11 @@
       <c r="P76" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -8788,8 +9074,11 @@
       <c r="P77" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -8838,8 +9127,11 @@
       <c r="P78" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1457</v>
       </c>
@@ -8888,8 +9180,11 @@
       <c r="P79" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -8938,8 +9233,11 @@
       <c r="P80" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>334</v>
       </c>
@@ -8985,8 +9283,11 @@
       <c r="P81" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -9032,8 +9333,11 @@
       <c r="P82" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -9082,8 +9386,11 @@
       <c r="P83" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -9132,8 +9439,11 @@
       <c r="P84" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>347</v>
       </c>
@@ -9179,8 +9489,11 @@
       <c r="P85" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -9229,8 +9542,11 @@
       <c r="P86" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>353</v>
       </c>
@@ -9276,8 +9592,11 @@
       <c r="P87" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>356</v>
       </c>
@@ -9326,8 +9645,11 @@
       <c r="P88" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>360</v>
       </c>
@@ -9376,8 +9698,11 @@
       <c r="P89" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>364</v>
       </c>
@@ -9426,8 +9751,11 @@
       <c r="P90" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>368</v>
       </c>
@@ -9476,8 +9804,11 @@
       <c r="P91" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>371</v>
       </c>
@@ -9526,8 +9857,11 @@
       <c r="P92" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -9576,8 +9910,11 @@
       <c r="P93" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>380</v>
       </c>
@@ -9588,7 +9925,7 @@
         <v>381</v>
       </c>
       <c r="D94" t="s">
-        <v>382</v>
+        <v>1474</v>
       </c>
       <c r="E94" t="s">
         <v>215</v>
@@ -9600,34 +9937,37 @@
         <v>383</v>
       </c>
       <c r="H94">
-        <v>8.8348470003220034E-2</v>
+        <v>-8.8348470003220034E-2</v>
       </c>
       <c r="I94">
-        <v>8.8325868518966788E-2</v>
+        <v>-8.8371064918966791E-2</v>
       </c>
       <c r="J94">
-        <v>8.8371064918966791E-2</v>
+        <v>-8.8325868518966788E-2</v>
       </c>
       <c r="K94">
-        <v>0.3190280110132922</v>
+        <v>-0.3190280110132922</v>
       </c>
       <c r="L94">
-        <v>0.31894639662238089</v>
+        <v>-0.31910960168520119</v>
       </c>
       <c r="M94">
-        <v>0.31910960168520119</v>
+        <v>-0.31894639662238089</v>
       </c>
       <c r="N94">
-        <v>8.8363069621121115E-2</v>
+        <v>-8.8363069621121115E-2</v>
       </c>
       <c r="O94">
-        <v>0.31908188216137362</v>
+        <v>-0.31908188216137362</v>
       </c>
       <c r="P94" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>384</v>
       </c>
@@ -9676,8 +10016,11 @@
       <c r="P95" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>388</v>
       </c>
@@ -9726,8 +10069,11 @@
       <c r="P96" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -9776,8 +10122,11 @@
       <c r="P97" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1458</v>
       </c>
@@ -9826,8 +10175,11 @@
       <c r="P98" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>399</v>
       </c>
@@ -9876,8 +10228,11 @@
       <c r="P99" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>403</v>
       </c>
@@ -9926,8 +10281,11 @@
       <c r="P100" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>407</v>
       </c>
@@ -9976,8 +10334,11 @@
       <c r="P101" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -10026,8 +10387,11 @@
       <c r="P102" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>415</v>
       </c>
@@ -10076,8 +10440,11 @@
       <c r="P103" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>420</v>
       </c>
@@ -10123,8 +10490,11 @@
       <c r="P104" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -10135,7 +10505,7 @@
         <v>424</v>
       </c>
       <c r="D105" t="s">
-        <v>1469</v>
+        <v>1484</v>
       </c>
       <c r="E105" t="s">
         <v>426</v>
@@ -10170,8 +10540,11 @@
       <c r="P105" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>427</v>
       </c>
@@ -10182,7 +10555,7 @@
         <v>428</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>1485</v>
       </c>
       <c r="E106" t="s">
         <v>426</v>
@@ -10217,8 +10590,11 @@
       <c r="P106" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>430</v>
       </c>
@@ -10229,7 +10605,7 @@
         <v>431</v>
       </c>
       <c r="D107" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="E107" t="s">
         <v>426</v>
@@ -10264,8 +10640,11 @@
       <c r="P107" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>433</v>
       </c>
@@ -10276,7 +10655,7 @@
         <v>434</v>
       </c>
       <c r="D108" t="s">
-        <v>435</v>
+        <v>1487</v>
       </c>
       <c r="E108" t="s">
         <v>426</v>
@@ -10311,8 +10690,11 @@
       <c r="P108" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>436</v>
       </c>
@@ -10323,7 +10705,7 @@
         <v>437</v>
       </c>
       <c r="D109" t="s">
-        <v>1471</v>
+        <v>1488</v>
       </c>
       <c r="E109" t="s">
         <v>426</v>
@@ -10358,8 +10740,11 @@
       <c r="P109" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>439</v>
       </c>
@@ -10370,7 +10755,7 @@
         <v>440</v>
       </c>
       <c r="D110" t="s">
-        <v>1472</v>
+        <v>1489</v>
       </c>
       <c r="E110" t="s">
         <v>426</v>
@@ -10405,8 +10790,11 @@
       <c r="P110" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>442</v>
       </c>
@@ -10417,7 +10805,7 @@
         <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>1490</v>
       </c>
       <c r="E111" t="s">
         <v>426</v>
@@ -10452,8 +10840,11 @@
       <c r="P111" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>445</v>
       </c>
@@ -10464,7 +10855,7 @@
         <v>446</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>1491</v>
       </c>
       <c r="E112" t="s">
         <v>426</v>
@@ -10499,8 +10890,11 @@
       <c r="P112" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>448</v>
       </c>
@@ -10511,7 +10905,7 @@
         <v>449</v>
       </c>
       <c r="D113" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
       <c r="E113" t="s">
         <v>426</v>
@@ -10546,8 +10940,11 @@
       <c r="P113" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>451</v>
       </c>
@@ -10558,7 +10955,7 @@
         <v>452</v>
       </c>
       <c r="D114" t="s">
-        <v>1474</v>
+        <v>1493</v>
       </c>
       <c r="E114" t="s">
         <v>426</v>
@@ -10593,8 +10990,11 @@
       <c r="P114" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>454</v>
       </c>
@@ -10605,7 +11005,7 @@
         <v>455</v>
       </c>
       <c r="D115" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="E115" t="s">
         <v>426</v>
@@ -10640,8 +11040,11 @@
       <c r="P115" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>457</v>
       </c>
@@ -10652,7 +11055,7 @@
         <v>458</v>
       </c>
       <c r="D116" t="s">
-        <v>1476</v>
+        <v>1495</v>
       </c>
       <c r="E116" t="s">
         <v>426</v>
@@ -10687,8 +11090,11 @@
       <c r="P116" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>460</v>
       </c>
@@ -10699,7 +11105,7 @@
         <v>461</v>
       </c>
       <c r="D117" t="s">
-        <v>1477</v>
+        <v>1496</v>
       </c>
       <c r="E117" t="s">
         <v>426</v>
@@ -10734,8 +11140,11 @@
       <c r="P117" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>463</v>
       </c>
@@ -10746,7 +11155,7 @@
         <v>464</v>
       </c>
       <c r="D118" t="s">
-        <v>1478</v>
+        <v>1497</v>
       </c>
       <c r="E118" t="s">
         <v>426</v>
@@ -10781,8 +11190,11 @@
       <c r="P118" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>466</v>
       </c>
@@ -10793,7 +11205,7 @@
         <v>467</v>
       </c>
       <c r="D119" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="E119" t="s">
         <v>426</v>
@@ -10828,8 +11240,11 @@
       <c r="P119" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -10840,7 +11255,7 @@
         <v>470</v>
       </c>
       <c r="D120" t="s">
-        <v>1480</v>
+        <v>1499</v>
       </c>
       <c r="E120" t="s">
         <v>426</v>
@@ -10875,8 +11290,11 @@
       <c r="P120" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>472</v>
       </c>
@@ -10925,8 +11343,11 @@
       <c r="P121" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>477</v>
       </c>
@@ -10975,8 +11396,11 @@
       <c r="P122" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>480</v>
       </c>
@@ -11025,8 +11449,11 @@
       <c r="P123" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>484</v>
       </c>
@@ -11075,8 +11502,11 @@
       <c r="P124" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>488</v>
       </c>
@@ -11087,7 +11517,7 @@
         <v>489</v>
       </c>
       <c r="D125" t="s">
-        <v>490</v>
+        <v>1501</v>
       </c>
       <c r="E125" t="s">
         <v>228</v>
@@ -11099,34 +11529,37 @@
         <v>491</v>
       </c>
       <c r="H125">
-        <v>10.82957138979237</v>
+        <v>5.4147856948961852</v>
       </c>
       <c r="I125">
-        <v>10.51183598949096</v>
+        <v>5.2559179947454799</v>
       </c>
       <c r="J125">
-        <v>10.829869555181631</v>
+        <v>5.4149347775908154</v>
       </c>
       <c r="K125">
-        <v>39.105788934273477</v>
+        <v>19.552894467136738</v>
       </c>
       <c r="L125">
-        <v>37.958440340879868</v>
+        <v>18.979220170439934</v>
       </c>
       <c r="M125">
-        <v>39.106865615183587</v>
+        <v>19.553432807591793</v>
       </c>
       <c r="N125">
-        <v>10.511868569895331</v>
+        <v>5.2559342849476653</v>
       </c>
       <c r="O125">
-        <v>37.958694992115333</v>
+        <v>18.979347496057667</v>
       </c>
       <c r="P125" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>492</v>
       </c>
@@ -11175,8 +11608,11 @@
       <c r="P126" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>497</v>
       </c>
@@ -11225,8 +11661,11 @@
       <c r="P127" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>502</v>
       </c>
@@ -11275,8 +11714,11 @@
       <c r="P128" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>504</v>
       </c>
@@ -11325,8 +11767,11 @@
       <c r="P129" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>508</v>
       </c>
@@ -11375,8 +11820,11 @@
       <c r="P130" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>512</v>
       </c>
@@ -11425,8 +11873,11 @@
       <c r="P131" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>516</v>
       </c>
@@ -11475,8 +11926,11 @@
       <c r="P132" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>520</v>
       </c>
@@ -11525,8 +11979,11 @@
       <c r="P133" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>524</v>
       </c>
@@ -11575,8 +12032,11 @@
       <c r="P134" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>528</v>
       </c>
@@ -11625,8 +12085,11 @@
       <c r="P135" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>532</v>
       </c>
@@ -11675,8 +12138,11 @@
       <c r="P136" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>536</v>
       </c>
@@ -11725,8 +12191,11 @@
       <c r="P137" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>539</v>
       </c>
@@ -11775,8 +12244,11 @@
       <c r="P138" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>543</v>
       </c>
@@ -11825,8 +12297,11 @@
       <c r="P139" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>547</v>
       </c>
@@ -11875,8 +12350,11 @@
       <c r="P140" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>551</v>
       </c>
@@ -11925,8 +12403,11 @@
       <c r="P141" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>555</v>
       </c>
@@ -11975,8 +12456,11 @@
       <c r="P142" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>559</v>
       </c>
@@ -12025,8 +12509,11 @@
       <c r="P143" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>563</v>
       </c>
@@ -12075,8 +12562,11 @@
       <c r="P144" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>567</v>
       </c>
@@ -12125,8 +12615,11 @@
       <c r="P145" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>571</v>
       </c>
@@ -12175,8 +12668,11 @@
       <c r="P146" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>575</v>
       </c>
@@ -12225,8 +12721,11 @@
       <c r="P147" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>580</v>
       </c>
@@ -12275,8 +12774,11 @@
       <c r="P148" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>585</v>
       </c>
@@ -12325,8 +12827,11 @@
       <c r="P149" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -12375,8 +12880,11 @@
       <c r="P150" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>593</v>
       </c>
@@ -12425,8 +12933,11 @@
       <c r="P151" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>596</v>
       </c>
@@ -12437,7 +12948,7 @@
         <v>597</v>
       </c>
       <c r="D152" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="E152" t="s">
         <v>26</v>
@@ -12449,59 +12960,37 @@
         <v>599</v>
       </c>
       <c r="H152">
-        <v>14.981893642769659</v>
+        <v>-14.9818936427697</v>
       </c>
       <c r="I152">
-        <v>14.978479982234839</v>
+        <v>-14.98537625263377</v>
       </c>
       <c r="J152">
-        <v>14.98537625263377</v>
+        <v>-14.978479982234839</v>
       </c>
       <c r="K152">
-        <v>54.099903822797273</v>
+        <v>-54.099903822797273</v>
       </c>
       <c r="L152">
-        <v>54.087577029467852</v>
+        <v>-54.11247959347039</v>
       </c>
       <c r="M152">
-        <v>54.11247959347039</v>
+        <v>-54.087577029467852</v>
       </c>
       <c r="N152">
-        <v>14.98397415246056</v>
+        <v>-14.98397415246056</v>
       </c>
       <c r="O152">
-        <v>54.107611871392891</v>
+        <v>-54.107611871392891</v>
       </c>
       <c r="P152" t="s">
         <v>598</v>
       </c>
-      <c r="R152" cm="1">
-        <f t="array" ref="R152:Y152">-Table1[[#This Row],[val_fit]:[pfba_100]]</f>
-        <v>-14.981893642769659</v>
-      </c>
-      <c r="S152">
-        <v>-14.978479982234839</v>
-      </c>
-      <c r="T152">
-        <v>-14.98537625263377</v>
-      </c>
-      <c r="U152">
-        <v>-54.099903822797273</v>
-      </c>
-      <c r="V152">
-        <v>-54.087577029467852</v>
-      </c>
-      <c r="W152">
-        <v>-54.11247959347039</v>
-      </c>
-      <c r="X152">
-        <v>-14.98397415246056</v>
-      </c>
-      <c r="Y152">
-        <v>-54.107611871392891</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>600</v>
       </c>
@@ -12547,8 +13036,11 @@
       <c r="P153" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>602</v>
       </c>
@@ -12597,8 +13089,11 @@
       <c r="P154" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>606</v>
       </c>
@@ -12647,8 +13142,11 @@
       <c r="P155" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>610</v>
       </c>
@@ -12697,8 +13195,11 @@
       <c r="P156" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>614</v>
       </c>
@@ -12747,8 +13248,11 @@
       <c r="P157" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>619</v>
       </c>
@@ -12797,8 +13301,11 @@
       <c r="P158" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>623</v>
       </c>
@@ -12847,8 +13354,11 @@
       <c r="P159" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>627</v>
       </c>
@@ -12897,8 +13407,11 @@
       <c r="P160" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>631</v>
       </c>
@@ -12947,8 +13460,11 @@
       <c r="P161" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>635</v>
       </c>
@@ -12997,8 +13513,11 @@
       <c r="P162" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>639</v>
       </c>
@@ -13047,8 +13566,11 @@
       <c r="P163" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>643</v>
       </c>
@@ -13097,8 +13619,11 @@
       <c r="P164" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>647</v>
       </c>
@@ -13147,8 +13672,11 @@
       <c r="P165" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>650</v>
       </c>
@@ -13197,8 +13725,11 @@
       <c r="P166" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>654</v>
       </c>
@@ -13247,8 +13778,11 @@
       <c r="P167" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>658</v>
       </c>
@@ -13297,8 +13831,11 @@
       <c r="P168" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>662</v>
       </c>
@@ -13309,7 +13846,7 @@
         <v>663</v>
       </c>
       <c r="D169" t="s">
-        <v>664</v>
+        <v>1470</v>
       </c>
       <c r="E169" t="s">
         <v>26</v>
@@ -13318,34 +13855,37 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1.4166255919499451</v>
+        <v>-1.4166255919499451</v>
       </c>
       <c r="I169">
-        <v>0.46279565487165419</v>
+        <v>-1.5441769187090519</v>
       </c>
       <c r="J169">
-        <v>1.5441769187090519</v>
+        <v>-0.46279565487165419</v>
       </c>
       <c r="K169">
-        <v>5.1154620440381899</v>
+        <v>-5.1154620440381899</v>
       </c>
       <c r="L169">
-        <v>1.671163940630966</v>
+        <v>-5.5760523188508868</v>
       </c>
       <c r="M169">
-        <v>5.5760523188508868</v>
+        <v>-1.671163940630966</v>
       </c>
       <c r="N169">
-        <v>1.488926965069949</v>
+        <v>-1.488926965069949</v>
       </c>
       <c r="O169">
-        <v>5.3765630874120509</v>
+        <v>-5.3765630874120509</v>
       </c>
       <c r="P169" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>665</v>
       </c>
@@ -13391,8 +13931,11 @@
       <c r="P170" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>668</v>
       </c>
@@ -13441,8 +13984,11 @@
       <c r="P171" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1459</v>
       </c>
@@ -13491,8 +14037,11 @@
       <c r="P172" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>676</v>
       </c>
@@ -13541,8 +14090,11 @@
       <c r="P173" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>680</v>
       </c>
@@ -13591,8 +14143,11 @@
       <c r="P174" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>684</v>
       </c>
@@ -13641,8 +14196,11 @@
       <c r="P175" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>688</v>
       </c>
@@ -13691,8 +14249,11 @@
       <c r="P176" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>692</v>
       </c>
@@ -13741,8 +14302,11 @@
       <c r="P177" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>696</v>
       </c>
@@ -13753,7 +14317,7 @@
         <v>697</v>
       </c>
       <c r="D178" t="s">
-        <v>698</v>
+        <v>1483</v>
       </c>
       <c r="E178" t="s">
         <v>142</v>
@@ -13765,34 +14329,37 @@
         <v>699</v>
       </c>
       <c r="H178">
-        <v>0.1085400471372433</v>
+        <v>-0.1085400471372433</v>
       </c>
       <c r="I178">
-        <v>0.10851228217757269</v>
+        <v>-0.10856780797757271</v>
       </c>
       <c r="J178">
-        <v>0.10856780797757271</v>
+        <v>-0.10851228217757269</v>
       </c>
       <c r="K178">
-        <v>0.39194018133219111</v>
+        <v>-0.39194018133219111</v>
       </c>
       <c r="L178">
-        <v>0.39183992153302022</v>
+        <v>-0.39204042625634222</v>
       </c>
       <c r="M178">
-        <v>0.39204042625634222</v>
+        <v>-0.39183992153302022</v>
       </c>
       <c r="N178">
-        <v>0.10855798539636891</v>
+        <v>-0.10855798539636891</v>
       </c>
       <c r="O178">
-        <v>0.39200637158083401</v>
+        <v>-0.39200637158083401</v>
       </c>
       <c r="P178" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>700</v>
       </c>
@@ -13838,8 +14405,11 @@
       <c r="P179" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>703</v>
       </c>
@@ -13888,8 +14458,11 @@
       <c r="P180" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>706</v>
       </c>
@@ -13938,8 +14511,11 @@
       <c r="P181" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>710</v>
       </c>
@@ -13988,8 +14564,11 @@
       <c r="P182" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>714</v>
       </c>
@@ -14038,8 +14617,11 @@
       <c r="P183" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>718</v>
       </c>
@@ -14050,7 +14632,7 @@
         <v>719</v>
       </c>
       <c r="D184" t="s">
-        <v>720</v>
+        <v>1472</v>
       </c>
       <c r="E184" t="s">
         <v>64</v>
@@ -14062,34 +14644,37 @@
         <v>721</v>
       </c>
       <c r="H184">
-        <v>0.1476072523178685</v>
+        <v>-0.1476072523178685</v>
       </c>
       <c r="I184">
-        <v>0.14756949642190759</v>
+        <v>-0.14764500782190759</v>
       </c>
       <c r="J184">
-        <v>0.14764500782190759</v>
+        <v>-0.14756949642190759</v>
       </c>
       <c r="K184">
-        <v>0.53301260470487433</v>
+        <v>-0.53301260470487433</v>
       </c>
       <c r="L184">
-        <v>0.53287626744411598</v>
+        <v>-0.53314894055039552</v>
       </c>
       <c r="M184">
-        <v>0.53314894055039552</v>
+        <v>-0.53287626744411598</v>
       </c>
       <c r="N184">
-        <v>0.14763164976388221</v>
+        <v>-0.14763164976388221</v>
       </c>
       <c r="O184">
-        <v>0.53310262845360146</v>
+        <v>-0.53310262845360146</v>
       </c>
       <c r="P184" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>722</v>
       </c>
@@ -14100,7 +14685,7 @@
         <v>723</v>
       </c>
       <c r="D185" t="s">
-        <v>724</v>
+        <v>1471</v>
       </c>
       <c r="E185" t="s">
         <v>64</v>
@@ -14112,34 +14697,37 @@
         <v>721</v>
       </c>
       <c r="H185">
-        <v>0.14760724495774499</v>
+        <v>-0.14760724495774499</v>
       </c>
       <c r="I185">
-        <v>0.14756949642190759</v>
+        <v>-0.14764500782190759</v>
       </c>
       <c r="J185">
-        <v>0.14764500782190759</v>
+        <v>-0.14756949642190759</v>
       </c>
       <c r="K185">
-        <v>0.53301257812732783</v>
+        <v>-0.53301257812732783</v>
       </c>
       <c r="L185">
-        <v>0.53287626744411598</v>
+        <v>-0.53314894055039552</v>
       </c>
       <c r="M185">
-        <v>0.53314894055039552</v>
+        <v>-0.53287626744411598</v>
       </c>
       <c r="N185">
-        <v>0.14763164976388221</v>
+        <v>-0.14763164976388221</v>
       </c>
       <c r="O185">
-        <v>0.53310262845360146</v>
+        <v>-0.53310262845360146</v>
       </c>
       <c r="P185" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>725</v>
       </c>
@@ -14188,8 +14776,11 @@
       <c r="P186" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>729</v>
       </c>
@@ -14238,8 +14829,11 @@
       <c r="P187" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>733</v>
       </c>
@@ -14288,8 +14882,11 @@
       <c r="P188" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>736</v>
       </c>
@@ -14338,8 +14935,11 @@
       <c r="P189" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>740</v>
       </c>
@@ -14388,8 +14988,11 @@
       <c r="P190" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>744</v>
       </c>
@@ -14435,8 +15038,11 @@
       <c r="P191" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>747</v>
       </c>
@@ -14482,8 +15088,11 @@
       <c r="P192" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>750</v>
       </c>
@@ -14494,7 +15103,7 @@
         <v>751</v>
       </c>
       <c r="D193" t="s">
-        <v>752</v>
+        <v>1475</v>
       </c>
       <c r="E193" t="s">
         <v>142</v>
@@ -14506,34 +15115,37 @@
         <v>753</v>
       </c>
       <c r="H193">
-        <v>0.1476072559460859</v>
+        <v>-0.1476072559460859</v>
       </c>
       <c r="I193">
-        <v>0.14756949642190759</v>
+        <v>-0.14764500782190759</v>
       </c>
       <c r="J193">
-        <v>0.14764500782190759</v>
+        <v>-0.14756949642190759</v>
       </c>
       <c r="K193">
-        <v>0.5330126178064365</v>
+        <v>-0.5330126178064365</v>
       </c>
       <c r="L193">
-        <v>0.53287626744411598</v>
+        <v>-0.53314894055039552</v>
       </c>
       <c r="M193">
-        <v>0.53314894055039552</v>
+        <v>-0.53287626744411598</v>
       </c>
       <c r="N193">
-        <v>0.14763164976388221</v>
+        <v>-0.14763164976388221</v>
       </c>
       <c r="O193">
-        <v>0.53310262845360146</v>
+        <v>-0.53310262845360146</v>
       </c>
       <c r="P193" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>754</v>
       </c>
@@ -14582,8 +15194,11 @@
       <c r="P194" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>758</v>
       </c>
@@ -14632,8 +15247,11 @@
       <c r="P195" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -14682,8 +15300,11 @@
       <c r="P196" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>766</v>
       </c>
@@ -14732,8 +15353,11 @@
       <c r="P197" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>771</v>
       </c>
@@ -14782,8 +15406,11 @@
       <c r="P198" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>775</v>
       </c>
@@ -14832,8 +15459,11 @@
       <c r="P199" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>779</v>
       </c>
@@ -14844,7 +15474,7 @@
         <v>780</v>
       </c>
       <c r="D200" t="s">
-        <v>781</v>
+        <v>1476</v>
       </c>
       <c r="E200" t="s">
         <v>17</v>
@@ -14856,34 +15486,37 @@
         <v>782</v>
       </c>
       <c r="H200">
-        <v>0.15021608960184479</v>
+        <v>-0.15021608960184479</v>
       </c>
       <c r="I200">
-        <v>0.15017766220779799</v>
+        <v>-0.15025450820779801</v>
       </c>
       <c r="J200">
-        <v>0.15025450820779801</v>
+        <v>-0.15017766220779799</v>
       </c>
       <c r="K200">
-        <v>0.54243316591814639</v>
+        <v>-0.54243316591814639</v>
       </c>
       <c r="L200">
-        <v>0.5422944038649864</v>
+        <v>-0.54257189623733237</v>
       </c>
       <c r="M200">
-        <v>0.54257189623733237</v>
+        <v>-0.5422944038649864</v>
       </c>
       <c r="N200">
-        <v>0.1502409140574178</v>
+        <v>-0.1502409140574178</v>
       </c>
       <c r="O200">
-        <v>0.5425247656134764</v>
+        <v>-0.5425247656134764</v>
       </c>
       <c r="P200" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>783</v>
       </c>
@@ -14932,8 +15565,11 @@
       <c r="P201" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>787</v>
       </c>
@@ -14982,8 +15618,11 @@
       <c r="P202" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>790</v>
       </c>
@@ -15032,8 +15671,11 @@
       <c r="P203" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>794</v>
       </c>
@@ -15082,8 +15724,11 @@
       <c r="P204" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>797</v>
       </c>
@@ -15132,8 +15777,11 @@
       <c r="P205" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>801</v>
       </c>
@@ -15182,8 +15830,11 @@
       <c r="P206" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>805</v>
       </c>
@@ -15232,8 +15883,11 @@
       <c r="P207" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>809</v>
       </c>
@@ -15282,8 +15936,11 @@
       <c r="P208" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>813</v>
       </c>
@@ -15329,8 +15986,11 @@
       <c r="P209" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>816</v>
       </c>
@@ -15376,8 +16036,11 @@
       <c r="P210" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>819</v>
       </c>
@@ -15426,8 +16089,11 @@
       <c r="P211" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>823</v>
       </c>
@@ -15473,8 +16139,11 @@
       <c r="P212" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>826</v>
       </c>
@@ -15523,8 +16192,11 @@
       <c r="P213" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>830</v>
       </c>
@@ -15573,8 +16245,11 @@
       <c r="P214" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>834</v>
       </c>
@@ -15623,8 +16298,11 @@
       <c r="P215" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>837</v>
       </c>
@@ -15673,8 +16351,11 @@
       <c r="P216" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>839</v>
       </c>
@@ -15723,8 +16404,11 @@
       <c r="P217" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>841</v>
       </c>
@@ -15773,8 +16457,11 @@
       <c r="P218" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>843</v>
       </c>
@@ -15823,8 +16510,11 @@
       <c r="P219" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>845</v>
       </c>
@@ -15873,8 +16563,11 @@
       <c r="P220" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>847</v>
       </c>
@@ -15923,8 +16616,11 @@
       <c r="P221" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>849</v>
       </c>
@@ -15973,8 +16669,11 @@
       <c r="P222" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>853</v>
       </c>
@@ -16020,8 +16719,11 @@
       <c r="P223" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>856</v>
       </c>
@@ -16070,8 +16772,11 @@
       <c r="P224" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>860</v>
       </c>
@@ -16117,8 +16822,11 @@
       <c r="P225" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>863</v>
       </c>
@@ -16164,8 +16872,11 @@
       <c r="P226" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>865</v>
       </c>
@@ -16214,8 +16925,11 @@
       <c r="P227" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>869</v>
       </c>
@@ -16264,8 +16978,11 @@
       <c r="P228" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>873</v>
       </c>
@@ -16314,8 +17031,11 @@
       <c r="P229" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>876</v>
       </c>
@@ -16364,8 +17084,11 @@
       <c r="P230" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>880</v>
       </c>
@@ -16414,8 +17137,11 @@
       <c r="P231" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>884</v>
       </c>
@@ -16464,8 +17190,11 @@
       <c r="P232" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>888</v>
       </c>
@@ -16514,8 +17243,11 @@
       <c r="P233" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>892</v>
       </c>
@@ -16526,7 +17258,7 @@
         <v>893</v>
       </c>
       <c r="D234" t="s">
-        <v>894</v>
+        <v>1477</v>
       </c>
       <c r="E234" t="s">
         <v>215</v>
@@ -16538,34 +17270,37 @@
         <v>895</v>
       </c>
       <c r="H234">
-        <v>8.8348466266811768E-2</v>
+        <v>-8.8348466266811768E-2</v>
       </c>
       <c r="I234">
-        <v>8.8325868518966788E-2</v>
+        <v>-8.8371064918966791E-2</v>
       </c>
       <c r="J234">
-        <v>8.8371064918966791E-2</v>
+        <v>-8.8325868518966788E-2</v>
       </c>
       <c r="K234">
-        <v>0.31902799752105071</v>
+        <v>-0.31902799752105071</v>
       </c>
       <c r="L234">
-        <v>0.31894639662238089</v>
+        <v>-0.31910960168520119</v>
       </c>
       <c r="M234">
-        <v>0.31910960168520119</v>
+        <v>-0.31894639662238089</v>
       </c>
       <c r="N234">
-        <v>8.8363069621121115E-2</v>
+        <v>-8.8363069621121115E-2</v>
       </c>
       <c r="O234">
-        <v>0.31908188216137362</v>
+        <v>-0.31908188216137362</v>
       </c>
       <c r="P234" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1460</v>
       </c>
@@ -16614,8 +17349,11 @@
       <c r="P235" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>900</v>
       </c>
@@ -16664,8 +17402,11 @@
       <c r="P236" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>904</v>
       </c>
@@ -16714,8 +17455,11 @@
       <c r="P237" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>908</v>
       </c>
@@ -16764,8 +17508,11 @@
       <c r="P238" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>912</v>
       </c>
@@ -16814,8 +17561,11 @@
       <c r="P239" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1461</v>
       </c>
@@ -16864,8 +17614,11 @@
       <c r="P240" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1462</v>
       </c>
@@ -16914,8 +17667,11 @@
       <c r="P241" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>924</v>
       </c>
@@ -16964,8 +17720,11 @@
       <c r="P242" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>928</v>
       </c>
@@ -17014,8 +17773,11 @@
       <c r="P243" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>932</v>
       </c>
@@ -17064,8 +17826,11 @@
       <c r="P244" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>936</v>
       </c>
@@ -17114,8 +17879,11 @@
       <c r="P245" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>940</v>
       </c>
@@ -17164,8 +17932,11 @@
       <c r="P246" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>944</v>
       </c>
@@ -17214,8 +17985,11 @@
       <c r="P247" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>948</v>
       </c>
@@ -17264,8 +18038,11 @@
       <c r="P248" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>952</v>
       </c>
@@ -17276,7 +18053,7 @@
         <v>953</v>
       </c>
       <c r="D249" t="s">
-        <v>954</v>
+        <v>1478</v>
       </c>
       <c r="E249" t="s">
         <v>186</v>
@@ -17288,34 +18065,37 @@
         <v>955</v>
       </c>
       <c r="H249">
-        <v>6.9288691040331002E-2</v>
+        <v>-6.9288691040331002E-2</v>
       </c>
       <c r="I249">
-        <v>6.9270975907888596E-2</v>
+        <v>-6.9306421907888591E-2</v>
       </c>
       <c r="J249">
-        <v>6.9306421907888591E-2</v>
+        <v>-6.9270975907888596E-2</v>
       </c>
       <c r="K249">
-        <v>0.25020278548689823</v>
+        <v>-0.25020278548689823</v>
       </c>
       <c r="L249">
-        <v>0.25013881580561531</v>
+        <v>-0.25026681198798217</v>
       </c>
       <c r="M249">
-        <v>0.25026681198798217</v>
+        <v>-0.25013881580561531</v>
       </c>
       <c r="N249">
-        <v>6.9300151467600518E-2</v>
+        <v>-6.9300151467600518E-2</v>
       </c>
       <c r="O249">
-        <v>0.25024507250781147</v>
+        <v>-0.25024507250781147</v>
       </c>
       <c r="P249" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>956</v>
       </c>
@@ -17364,8 +18144,11 @@
       <c r="P250" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>960</v>
       </c>
@@ -17414,8 +18197,11 @@
       <c r="P251" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>963</v>
       </c>
@@ -17426,7 +18212,7 @@
         <v>964</v>
       </c>
       <c r="D252" t="s">
-        <v>965</v>
+        <v>1479</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
@@ -17438,34 +18224,37 @@
         <v>966</v>
       </c>
       <c r="H252">
-        <v>0.15021609297641</v>
+        <v>-0.15021609297641</v>
       </c>
       <c r="I252">
-        <v>0.15017766220779799</v>
+        <v>-0.15025450820779801</v>
       </c>
       <c r="J252">
-        <v>0.15025450820779801</v>
+        <v>-0.15017766220779799</v>
       </c>
       <c r="K252">
-        <v>0.54243317810376568</v>
+        <v>-0.54243317810376568</v>
       </c>
       <c r="L252">
-        <v>0.5422944038649864</v>
+        <v>-0.54257189623733237</v>
       </c>
       <c r="M252">
-        <v>0.54257189623733237</v>
+        <v>-0.5422944038649864</v>
       </c>
       <c r="N252">
-        <v>0.1502409140574178</v>
+        <v>-0.1502409140574178</v>
       </c>
       <c r="O252">
-        <v>0.5425247656134764</v>
+        <v>-0.5425247656134764</v>
       </c>
       <c r="P252" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1463</v>
       </c>
@@ -17514,8 +18303,11 @@
       <c r="P253" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>970</v>
       </c>
@@ -17564,8 +18356,11 @@
       <c r="P254" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>974</v>
       </c>
@@ -17614,8 +18409,11 @@
       <c r="P255" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>978</v>
       </c>
@@ -17664,8 +18462,11 @@
       <c r="P256" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>981</v>
       </c>
@@ -17714,8 +18515,11 @@
       <c r="P257" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>985</v>
       </c>
@@ -17761,8 +18565,11 @@
       <c r="P258" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>988</v>
       </c>
@@ -17811,8 +18618,11 @@
       <c r="P259" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>992</v>
       </c>
@@ -17861,8 +18671,11 @@
       <c r="P260" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>996</v>
       </c>
@@ -17911,8 +18724,11 @@
       <c r="P261" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1000</v>
       </c>
@@ -17961,8 +18777,11 @@
       <c r="P262" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1003</v>
       </c>
@@ -18011,8 +18830,11 @@
       <c r="P263" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1007</v>
       </c>
@@ -18061,8 +18883,11 @@
       <c r="P264" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1010</v>
       </c>
@@ -18111,8 +18936,11 @@
       <c r="P265" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1014</v>
       </c>
@@ -18161,8 +18989,11 @@
       <c r="P266" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1017</v>
       </c>
@@ -18211,8 +19042,11 @@
       <c r="P267" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1021</v>
       </c>
@@ -18261,8 +19095,11 @@
       <c r="P268" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1025</v>
       </c>
@@ -18311,8 +19148,11 @@
       <c r="P269" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1029</v>
       </c>
@@ -18361,8 +19201,11 @@
       <c r="P270" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1032</v>
       </c>
@@ -18411,8 +19254,11 @@
       <c r="P271" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1036</v>
       </c>
@@ -18461,8 +19307,11 @@
       <c r="P272" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1040</v>
       </c>
@@ -18511,8 +19360,11 @@
       <c r="P273" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1464</v>
       </c>
@@ -18561,8 +19413,11 @@
       <c r="P274" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1048</v>
       </c>
@@ -18611,8 +19466,11 @@
       <c r="P275" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1052</v>
       </c>
@@ -18661,8 +19519,11 @@
       <c r="P276" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1056</v>
       </c>
@@ -18711,8 +19572,11 @@
       <c r="P277" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1060</v>
       </c>
@@ -18761,8 +19625,11 @@
       <c r="P278" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1064</v>
       </c>
@@ -18811,8 +19678,11 @@
       <c r="P279" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1067</v>
       </c>
@@ -18861,8 +19731,11 @@
       <c r="P280" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1070</v>
       </c>
@@ -18911,8 +19784,11 @@
       <c r="P281" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1073</v>
       </c>
@@ -18961,8 +19837,11 @@
       <c r="P282" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1077</v>
       </c>
@@ -19011,8 +19890,11 @@
       <c r="P283" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1081</v>
       </c>
@@ -19061,8 +19943,11 @@
       <c r="P284" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1085</v>
       </c>
@@ -19111,8 +19996,11 @@
       <c r="P285" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1089</v>
       </c>
@@ -19161,8 +20049,11 @@
       <c r="P286" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1093</v>
       </c>
@@ -19211,8 +20102,11 @@
       <c r="P287" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1097</v>
       </c>
@@ -19261,8 +20155,11 @@
       <c r="P288" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1101</v>
       </c>
@@ -19311,8 +20208,11 @@
       <c r="P289" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1105</v>
       </c>
@@ -19361,8 +20261,11 @@
       <c r="P290" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1108</v>
       </c>
@@ -19411,8 +20314,11 @@
       <c r="P291" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1111</v>
       </c>
@@ -19461,8 +20367,11 @@
       <c r="P292" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1115</v>
       </c>
@@ -19511,8 +20420,11 @@
       <c r="P293" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1119</v>
       </c>
@@ -19561,8 +20473,11 @@
       <c r="P294" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1465</v>
       </c>
@@ -19611,8 +20526,11 @@
       <c r="P295" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1127</v>
       </c>
@@ -19661,8 +20579,11 @@
       <c r="P296" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1131</v>
       </c>
@@ -19711,8 +20632,11 @@
       <c r="P297" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1135</v>
       </c>
@@ -19761,8 +20685,11 @@
       <c r="P298" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1139</v>
       </c>
@@ -19811,8 +20738,11 @@
       <c r="P299" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1143</v>
       </c>
@@ -19861,8 +20791,11 @@
       <c r="P300" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1147</v>
       </c>
@@ -19911,8 +20844,11 @@
       <c r="P301" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1151</v>
       </c>
@@ -19961,8 +20897,11 @@
       <c r="P302" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1155</v>
       </c>
@@ -20011,8 +20950,11 @@
       <c r="P303" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1159</v>
       </c>
@@ -20061,8 +21003,11 @@
       <c r="P304" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1163</v>
       </c>
@@ -20111,8 +21056,11 @@
       <c r="P305" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1167</v>
       </c>
@@ -20161,8 +21109,11 @@
       <c r="P306" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1171</v>
       </c>
@@ -20211,8 +21162,11 @@
       <c r="P307" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1175</v>
       </c>
@@ -20261,8 +21215,11 @@
       <c r="P308" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1179</v>
       </c>
@@ -20311,8 +21268,11 @@
       <c r="P309" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1183</v>
       </c>
@@ -20361,8 +21321,11 @@
       <c r="P310" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1186</v>
       </c>
@@ -20411,8 +21374,11 @@
       <c r="P311" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1190</v>
       </c>
@@ -20461,8 +21427,11 @@
       <c r="P312" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1194</v>
       </c>
@@ -20511,8 +21480,11 @@
       <c r="P313" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1197</v>
       </c>
@@ -20561,8 +21533,11 @@
       <c r="P314" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1201</v>
       </c>
@@ -20611,8 +21586,11 @@
       <c r="P315" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1205</v>
       </c>
@@ -20661,8 +21639,11 @@
       <c r="P316" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1208</v>
       </c>
@@ -20711,8 +21692,11 @@
       <c r="P317" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1211</v>
       </c>
@@ -20723,7 +21707,7 @@
         <v>1209</v>
       </c>
       <c r="D318" t="s">
-        <v>1212</v>
+        <v>1480</v>
       </c>
       <c r="E318" t="s">
         <v>64</v>
@@ -20735,34 +21719,37 @@
         <v>699</v>
       </c>
       <c r="H318">
-        <v>0.28268364259818102</v>
+        <v>-0.28268364259818102</v>
       </c>
       <c r="I318">
-        <v>0.28261135463471049</v>
+        <v>-0.28275596703471051</v>
       </c>
       <c r="J318">
-        <v>0.28275596703471051</v>
+        <v>-0.28261135463471049</v>
       </c>
       <c r="K318">
-        <v>1.020776027483024</v>
+        <v>-1.020776027483024</v>
       </c>
       <c r="L318">
-        <v>1.0205149942675611</v>
+        <v>-1.021037192403399</v>
       </c>
       <c r="M318">
-        <v>1.021037192403399</v>
+        <v>-1.0205149942675611</v>
       </c>
       <c r="N318">
-        <v>0.28273038492617603</v>
+        <v>-0.28273038492617603</v>
       </c>
       <c r="O318">
-        <v>1.0209484997892191</v>
+        <v>-1.0209484997892191</v>
       </c>
       <c r="P318" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1213</v>
       </c>
@@ -20808,8 +21795,11 @@
       <c r="P319" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1216</v>
       </c>
@@ -20855,8 +21845,11 @@
       <c r="P320" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1219</v>
       </c>
@@ -20902,8 +21895,11 @@
       <c r="P321" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1222</v>
       </c>
@@ -20952,8 +21948,11 @@
       <c r="P322" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1226</v>
       </c>
@@ -21002,8 +22001,11 @@
       <c r="P323" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1229</v>
       </c>
@@ -21052,8 +22054,11 @@
       <c r="P324" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1233</v>
       </c>
@@ -21102,8 +22107,11 @@
       <c r="P325" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1236</v>
       </c>
@@ -21152,8 +22160,11 @@
       <c r="P326" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1239</v>
       </c>
@@ -21202,8 +22213,11 @@
       <c r="P327" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1242</v>
       </c>
@@ -21252,8 +22266,11 @@
       <c r="P328" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1246</v>
       </c>
@@ -21302,8 +22319,11 @@
       <c r="P329" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1250</v>
       </c>
@@ -21352,8 +22372,11 @@
       <c r="P330" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1255</v>
       </c>
@@ -21402,8 +22425,11 @@
       <c r="P331" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1259</v>
       </c>
@@ -21452,8 +22478,11 @@
       <c r="P332" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1263</v>
       </c>
@@ -21502,8 +22531,11 @@
       <c r="P333" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1267</v>
       </c>
@@ -21552,8 +22584,11 @@
       <c r="P334" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1271</v>
       </c>
@@ -21602,8 +22637,11 @@
       <c r="P335" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1275</v>
       </c>
@@ -21652,8 +22690,11 @@
       <c r="P336" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1279</v>
       </c>
@@ -21702,8 +22743,11 @@
       <c r="P337" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1282</v>
       </c>
@@ -21752,8 +22796,11 @@
       <c r="P338" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1286</v>
       </c>
@@ -21802,8 +22849,11 @@
       <c r="P339" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1290</v>
       </c>
@@ -21852,8 +22902,11 @@
       <c r="P340" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1294</v>
       </c>
@@ -21902,8 +22955,11 @@
       <c r="P341" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1298</v>
       </c>
@@ -21952,8 +23008,11 @@
       <c r="P342" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1303</v>
       </c>
@@ -22002,8 +23061,11 @@
       <c r="P343" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1308</v>
       </c>
@@ -22052,8 +23114,11 @@
       <c r="P344" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1312</v>
       </c>
@@ -22102,8 +23167,11 @@
       <c r="P345" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1316</v>
       </c>
@@ -22152,8 +23220,11 @@
       <c r="P346" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1320</v>
       </c>
@@ -22202,8 +23273,11 @@
       <c r="P347" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1324</v>
       </c>
@@ -22252,8 +23326,11 @@
       <c r="P348" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1466</v>
       </c>
@@ -22302,8 +23379,11 @@
       <c r="P349" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1332</v>
       </c>
@@ -22314,7 +23394,7 @@
         <v>1333</v>
       </c>
       <c r="D350" t="s">
-        <v>1334</v>
+        <v>1500</v>
       </c>
       <c r="E350" t="s">
         <v>426</v>
@@ -22349,8 +23429,11 @@
       <c r="P350" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1467</v>
       </c>
@@ -22399,8 +23482,11 @@
       <c r="P351" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1338</v>
       </c>
@@ -22446,8 +23532,11 @@
       <c r="P352" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1341</v>
       </c>
@@ -22458,7 +23547,7 @@
         <v>1342</v>
       </c>
       <c r="D353" t="s">
-        <v>1343</v>
+        <v>1481</v>
       </c>
       <c r="E353" t="s">
         <v>26</v>
@@ -22467,34 +23556,37 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>9.9997875135924055E-8</v>
+        <v>-9.9997875135924055E-8</v>
       </c>
       <c r="I353">
-        <v>9.9997875135924055E-8</v>
+        <v>-2.065840899944305</v>
       </c>
       <c r="J353">
-        <v>2.065840899944305</v>
+        <v>-9.9997875135924055E-8</v>
       </c>
       <c r="K353">
-        <v>3.6109423523697311E-7</v>
+        <v>-3.6109423523697311E-7</v>
       </c>
       <c r="L353">
-        <v>3.6109423523697311E-7</v>
+        <v>-7.4597909092836652</v>
       </c>
       <c r="M353">
-        <v>7.4597909092836652</v>
+        <v>-3.6109423523697311E-7</v>
       </c>
       <c r="N353">
-        <v>9.9999999999999995E-8</v>
+        <v>-9.9999999999999995E-8</v>
       </c>
       <c r="O353">
-        <v>3.611032114768278E-7</v>
+        <v>-3.611032114768278E-7</v>
       </c>
       <c r="P353" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1344</v>
       </c>
@@ -22543,8 +23635,11 @@
       <c r="P354" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1347</v>
       </c>
@@ -22590,8 +23685,11 @@
       <c r="P355" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1349</v>
       </c>
@@ -22602,7 +23700,7 @@
         <v>1350</v>
       </c>
       <c r="D356" t="s">
-        <v>1351</v>
+        <v>1482</v>
       </c>
       <c r="E356" t="s">
         <v>26</v>
@@ -22611,34 +23709,37 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <v>4.4322125699277971E-7</v>
+        <v>-4.4322125699277971E-7</v>
       </c>
       <c r="I356">
-        <v>1.9126282184339999E-7</v>
+        <v>-0.27936054631862711</v>
       </c>
       <c r="J356">
-        <v>0.27936054631862711</v>
+        <v>-1.9126282184339999E-7</v>
       </c>
       <c r="K356">
-        <v>1.6004804163791871E-6</v>
+        <v>-1.6004804163791871E-6</v>
       </c>
       <c r="L356">
-        <v>6.9065369928042464E-7</v>
+        <v>-1.0087762634075039</v>
       </c>
       <c r="M356">
-        <v>1.0087762634075039</v>
+        <v>-6.9065369928042464E-7</v>
       </c>
       <c r="N356">
-        <v>1.9999999999999999E-7</v>
+        <v>-1.9999999999999999E-7</v>
       </c>
       <c r="O356">
-        <v>7.222064229536556E-7</v>
+        <v>-7.222064229536556E-7</v>
       </c>
       <c r="P356" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1352</v>
       </c>
@@ -22687,8 +23788,11 @@
       <c r="P357" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1356</v>
       </c>
@@ -22737,8 +23841,11 @@
       <c r="P358" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1360</v>
       </c>
@@ -22784,8 +23891,11 @@
       <c r="P359" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1363</v>
       </c>
@@ -22834,8 +23944,11 @@
       <c r="P360" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1367</v>
       </c>
@@ -22884,8 +23997,11 @@
       <c r="P361" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1369</v>
       </c>
@@ -22934,8 +24050,11 @@
       <c r="P362" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1372</v>
       </c>
@@ -22984,8 +24103,11 @@
       <c r="P363" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1376</v>
       </c>
@@ -23034,8 +24156,11 @@
       <c r="P364" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1380</v>
       </c>
@@ -23084,8 +24209,11 @@
       <c r="P365" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1384</v>
       </c>
@@ -23134,8 +24262,11 @@
       <c r="P366" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1387</v>
       </c>
@@ -23184,8 +24315,11 @@
       <c r="P367" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1390</v>
       </c>
@@ -23234,8 +24368,11 @@
       <c r="P368" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1393</v>
       </c>
@@ -23284,8 +24421,11 @@
       <c r="P369" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1397</v>
       </c>
@@ -23334,8 +24474,11 @@
       <c r="P370" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1400</v>
       </c>
@@ -23384,8 +24527,11 @@
       <c r="P371" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1402</v>
       </c>
@@ -23434,8 +24580,11 @@
       <c r="P372" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1404</v>
       </c>
@@ -23484,8 +24633,11 @@
       <c r="P373" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1408</v>
       </c>
@@ -23531,8 +24683,11 @@
       <c r="P374" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1411</v>
       </c>
@@ -23581,8 +24736,11 @@
       <c r="P375" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1415</v>
       </c>
@@ -23631,8 +24789,11 @@
       <c r="P376" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1419</v>
       </c>
@@ -23681,8 +24842,11 @@
       <c r="P377" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1423</v>
       </c>
@@ -23731,8 +24895,11 @@
       <c r="P378" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1427</v>
       </c>
@@ -23781,8 +24948,11 @@
       <c r="P379" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1430</v>
       </c>
@@ -23831,8 +25001,11 @@
       <c r="P380" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1434</v>
       </c>
@@ -23881,8 +25054,11 @@
       <c r="P381" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1438</v>
       </c>
@@ -23928,8 +25104,11 @@
       <c r="P382" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1441</v>
       </c>
@@ -23978,8 +25157,11 @@
       <c r="P383" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1445</v>
       </c>
@@ -24028,8 +25210,11 @@
       <c r="P384" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AC384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1449</v>
       </c>
@@ -24077,6 +25262,9 @@
       </c>
       <c r="P385" t="s">
         <v>1451</v>
+      </c>
+      <c r="AC385" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
